--- a/00_mamagement/WBSガントチャート(第二反復) .xlsx
+++ b/00_mamagement/WBSガントチャート(第二反復) .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D23165-FDBE-4883-BD58-AB24FD203A6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{A4279083-635C-4A93-B5DB-E0065B6BF639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66859A50-7AC7-4897-BC65-71DAE1CC928D}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="315" windowWidth="20280" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,14 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,14 +96,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -116,7 +118,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="82">
+  <si>
+    <t>マインスイーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -173,6 +179,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>月</t>
+  </si>
+  <si>
     <t>火</t>
   </si>
   <si>
@@ -180,12 +189,6 @@
   </si>
   <si>
     <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>月</t>
   </si>
   <si>
     <t>5日目</t>
@@ -228,26 +231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9日目</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10日目</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>午前</t>
     <rPh sb="0" eb="2">
       <t>ゴゼン</t>
@@ -296,13 +279,13 @@
     <t>反復計画書</t>
   </si>
   <si>
-    <t>新規作成</t>
-  </si>
-  <si>
-    <t>着手</t>
-  </si>
-  <si>
-    <t>横井</t>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>今竹</t>
   </si>
   <si>
     <t>b</t>
@@ -312,57 +295,85 @@
     <t>WBS＆ガントチャート</t>
   </si>
   <si>
+    <t>横井、鈴木、栢沼、浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+  </si>
+  <si>
+    <t>レビュー参加</t>
+  </si>
+  <si>
+    <t>レビュー指摘修正＆内部レビュー</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>レビュー議事録作成</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>B.要件分析</t>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+  </si>
+  <si>
+    <t>横井</t>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+  </si>
+  <si>
+    <t>横井、鈴木、今竹、栢沼</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書</t>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今竹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+  </si>
+  <si>
+    <t>C.分析</t>
+  </si>
+  <si>
+    <t>オブジェクト図</t>
+  </si>
+  <si>
     <t>横井、鈴木、今竹、栢沼、浜崎</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー</t>
-  </si>
-  <si>
-    <t>レビュー参加</t>
-  </si>
-  <si>
-    <t>レビュー指摘修正＆内部レビュー</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>レビュー議事録作成</t>
-  </si>
-  <si>
-    <t>今竹</t>
-  </si>
-  <si>
-    <t>B.要件分析</t>
-  </si>
-  <si>
-    <t>ユースケース図</t>
-  </si>
-  <si>
-    <t>ユースケース記述</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非機能要求一覧</t>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテスト仕様書</t>
-  </si>
-  <si>
-    <t>C.分析</t>
-  </si>
-  <si>
-    <t>オブジェクト図</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -370,96 +381,19 @@
   </si>
   <si>
     <t>シーケンス図</t>
-  </si>
-  <si>
-    <t>D.設計</t>
-  </si>
-  <si>
-    <t>E.実装</t>
-  </si>
-  <si>
-    <t>成果物</t>
-  </si>
-  <si>
-    <t>ソースコード</t>
-  </si>
-  <si>
-    <t>テストコード</t>
-  </si>
-  <si>
-    <t>F.テスト</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>テスト仕様書【結果記入済】</t>
-  </si>
-  <si>
-    <t>非機能要求一覧【結果記入済】</t>
-  </si>
-  <si>
-    <t>受け入れレビュー</t>
-  </si>
-  <si>
-    <t>受け入れレビュー議事録作成</t>
-  </si>
-  <si>
-    <t>鈴木</t>
-  </si>
-  <si>
-    <t>G.振り返り</t>
-  </si>
-  <si>
-    <t>KPTによる振り返り、開発体験シート</t>
-  </si>
-  <si>
-    <t>メトリクス評価</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>横井、鈴木、今竹、栢沼</t>
-  </si>
-  <si>
-    <t>テスト仕様書</t>
-  </si>
-  <si>
-    <t>横井、鈴木、栢沼、今竹、浜崎</t>
-  </si>
-  <si>
-    <t>浜崎、今竹</t>
-  </si>
-  <si>
-    <t>横井、鈴木、栢沼、</t>
-  </si>
-  <si>
-    <t>マインスイーパー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>横井、鈴木、栢沼、浜崎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浜崎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今竹</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>栢沼</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.設計</t>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、今竹、浜崎</t>
   </si>
   <si>
     <t>横井、今竹、浜崎</t>
@@ -482,6 +416,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>E.実装</t>
+  </si>
+  <si>
+    <t>成果物</t>
+  </si>
+  <si>
+    <t>ソースコード</t>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、</t>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコード</t>
+  </si>
+  <si>
+    <t>浜崎、今竹</t>
+  </si>
+  <si>
+    <t>F.テスト</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>テスト仕様書【結果記入済】</t>
+  </si>
+  <si>
     <t>今竹、鈴木</t>
     <rPh sb="0" eb="2">
       <t>イマタケ</t>
@@ -492,15 +457,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>横井、鈴木、栢沼、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浜崎</t>
-    <rPh sb="0" eb="2">
-      <t>ハマザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>非機能要求一覧【結果記入済】</t>
+  </si>
+  <si>
+    <t>受け入れレビュー</t>
+  </si>
+  <si>
+    <t>受け入れレビュー議事録作成</t>
+  </si>
+  <si>
+    <t>栢沼</t>
+  </si>
+  <si>
+    <t>G.振り返り</t>
+  </si>
+  <si>
+    <t>KPTによる振り返り、開発体験シート</t>
+  </si>
+  <si>
+    <t>メトリクス評価</t>
   </si>
 </sst>
 </file>
@@ -511,7 +486,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -609,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1188,36 +1163,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="double">
         <color rgb="FF000000"/>
       </right>
@@ -1278,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,242 +1352,233 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2207,16 +2143,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F113" sqref="F113:F114"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2231,213 +2167,177 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="92" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="H1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="I1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="J1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87">
+      <c r="K1" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="55">
         <v>43990</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="87">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43991</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43992</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="87">
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55">
         <v>43993</v>
       </c>
-      <c r="S1" s="88"/>
-      <c r="T1" s="87">
-        <v>43994</v>
-      </c>
-      <c r="U1" s="88"/>
-      <c r="V1" s="87">
-        <v>43997</v>
-      </c>
-      <c r="W1" s="88"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="89" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="53"/>
+      <c r="P2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="90"/>
-      <c r="V2" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="90"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-    </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="91" t="s">
+      <c r="S2" s="53"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91" t="s">
+      <c r="M4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="91"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-    </row>
-    <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="I5" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="J5" s="17">
         <v>5</v>
@@ -2451,7 +2351,7 @@
         <v>8.11</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="M5:W5" si="0">SUM(M7,M23,M43,M61,M79,M87,L101)</f>
+        <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M61,M79,M87,L101)</f>
         <v>14.71</v>
       </c>
       <c r="N5" s="17">
@@ -2478,40 +2378,24 @@
         <f t="shared" si="0"/>
         <v>6.41</v>
       </c>
-      <c r="T5" s="17">
-        <f>SUM(T7,T23,T43,T61,T79,T87,T101)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-    </row>
-    <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="98"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="40">
@@ -2519,7 +2403,7 @@
         <v>35.370000000000005</v>
       </c>
       <c r="L6" s="28">
-        <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
+        <f t="shared" ref="L6:S6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
         <v>8.34</v>
       </c>
       <c r="M6" s="28">
@@ -2548,44 +2432,28 @@
       </c>
       <c r="S6" s="28">
         <f t="shared" si="1"/>
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="T6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-    </row>
-    <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="1:23" ht="12" customHeight="1">
+      <c r="A7" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
@@ -2609,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="29">
-        <f t="shared" ref="P7:W7" si="3">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=1)*P$9:P$22)</f>
+        <f t="shared" ref="P7:S7" si="3">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=1)*P$9:P$22)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="29">
@@ -2624,40 +2492,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-    </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="123"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="8" spans="1:23" ht="12" customHeight="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
@@ -2681,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="30">
-        <f t="shared" ref="P8:W8" si="5">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=0)*P$9:P$22)</f>
+        <f t="shared" ref="P8:S8" si="5">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=0)*P$9:P$22)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="30">
@@ -2696,39 +2548,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-    </row>
-    <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107">
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+    </row>
+    <row r="9" spans="1:23" ht="12" customHeight="1">
+      <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2741,23 +2577,19 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-    </row>
-    <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="76"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" ht="12" customHeight="1">
+      <c r="A10" s="67"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2770,37 +2602,33 @@
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-    </row>
-    <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="72" t="s">
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+    </row>
+    <row r="11" spans="1:23" ht="12" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -2819,29 +2647,25 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-    </row>
-    <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+    </row>
+    <row r="12" spans="1:23" ht="12" customHeight="1">
+      <c r="A12" s="67"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="51" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J12" s="51">
         <v>1</v>
@@ -2860,37 +2684,33 @@
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-    </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="68"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+    </row>
+    <row r="13" spans="1:23" ht="12" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="59"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J13" s="8">
         <v>4</v>
@@ -2909,29 +2729,25 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-    </row>
-    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+    </row>
+    <row r="14" spans="1:23" ht="12" customHeight="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="51" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J14" s="51">
         <v>4</v>
@@ -2950,27 +2766,23 @@
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-    </row>
-    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107">
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" ht="12" customHeight="1">
+      <c r="A15" s="66">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
+      <c r="B15" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2986,23 +2798,19 @@
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-    </row>
-    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="76"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" ht="12" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3018,37 +2826,33 @@
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-    </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="68"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+    </row>
+    <row r="17" spans="1:23" ht="12" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="59"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
@@ -3067,29 +2871,25 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-    </row>
-    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+    </row>
+    <row r="18" spans="1:23" ht="12" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="51" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" s="51">
         <v>5</v>
@@ -3108,37 +2908,33 @@
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-    </row>
-    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="65"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+    </row>
+    <row r="19" spans="1:23" ht="12" customHeight="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="121"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" s="43">
         <v>5</v>
@@ -3157,31 +2953,27 @@
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-    </row>
-    <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="52" t="str">
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="52">
+        <v>20</v>
+      </c>
+      <c r="J20" s="50">
         <v>5</v>
       </c>
       <c r="K20" s="10">
@@ -3198,37 +2990,33 @@
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-    </row>
-    <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="72" t="s">
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+    </row>
+    <row r="21" spans="1:23" ht="12" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="68"/>
+      <c r="F21" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="59"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3247,29 +3035,25 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-    </row>
-    <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="51" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J22" s="51">
         <v>1</v>
@@ -3288,31 +3072,27 @@
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
       <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-    </row>
-    <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+    </row>
+    <row r="23" spans="1:23" ht="12" customHeight="1">
+      <c r="A23" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="50">
+      <c r="K23" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>5.3500000000000005</v>
       </c>
@@ -3333,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="33">
-        <f t="shared" ref="P23:W23" si="8">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f t="shared" ref="P23:S23" si="8">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="33">
@@ -3348,37 +3128,21 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T23" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-    </row>
-    <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3403,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="30">
-        <f t="shared" ref="P24:W24" si="10">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f t="shared" ref="P24:S24" si="10">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="34">
@@ -3418,39 +3182,23 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T24" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-    </row>
-    <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107">
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1">
+      <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
+      <c r="B25" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3466,23 +3214,19 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
       <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-    </row>
-    <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3498,37 +3242,33 @@
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
       <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-    </row>
-    <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="68"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="59"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
@@ -3547,29 +3287,25 @@
       <c r="Q27" s="41"/>
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-    </row>
-    <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="51" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J28" s="51">
         <v>1</v>
@@ -3588,37 +3324,33 @@
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
       <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-    </row>
-    <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="59" t="s">
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+    </row>
+    <row r="29" spans="1:23" ht="12" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="59"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
@@ -3637,29 +3369,25 @@
       <c r="Q29" s="41"/>
       <c r="R29" s="41"/>
       <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-    </row>
-    <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="69"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="51" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J30" s="51">
         <v>4</v>
@@ -3678,37 +3406,33 @@
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
       <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-    </row>
-    <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="59" t="s">
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+    </row>
+    <row r="31" spans="1:23" ht="12" customHeight="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="68"/>
+      <c r="C31" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="59"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I31" s="43" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -3727,29 +3451,25 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="69"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1">
+      <c r="A32" s="67"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="51" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="53" t="s">
-        <v>76</v>
+      <c r="I32" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="J32" s="51">
         <v>1</v>
@@ -3768,37 +3488,33 @@
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-    </row>
-    <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="68"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="59"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -3817,29 +3533,25 @@
       <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
       <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-    </row>
-    <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1">
+      <c r="A34" s="67"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="51" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="53" t="s">
-        <v>78</v>
+      <c r="I34" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="J34" s="51">
         <v>1</v>
@@ -3858,27 +3570,23 @@
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-    </row>
-    <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="107">
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1">
+      <c r="A35" s="66">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="75"/>
+      <c r="B35" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3894,23 +3602,19 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-    </row>
-    <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="108"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="76"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+    </row>
+    <row r="36" spans="1:23" ht="12" customHeight="1">
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3926,37 +3630,33 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-    </row>
-    <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="68"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="59"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J37" s="8">
         <v>5</v>
@@ -3975,29 +3675,25 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
       <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-    </row>
-    <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="69"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+    </row>
+    <row r="38" spans="1:23" ht="12" customHeight="1">
+      <c r="A38" s="67"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="51" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J38" s="51">
         <v>5</v>
@@ -4016,37 +3712,33 @@
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-    </row>
-    <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="65"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1">
+      <c r="A39" s="72"/>
+      <c r="B39" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="121"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J39" s="43">
         <v>5</v>
@@ -4065,31 +3757,27 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-    </row>
-    <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="52" t="str">
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1">
+      <c r="A40" s="73"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="52">
+        <v>20</v>
+      </c>
+      <c r="J40" s="50">
         <v>5</v>
       </c>
       <c r="K40" s="10">
@@ -4106,37 +3794,33 @@
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
       <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-    </row>
-    <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="72" t="s">
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+    </row>
+    <row r="41" spans="1:23" ht="12" customHeight="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="68"/>
+      <c r="F41" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="59"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4155,29 +3839,25 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
       <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-    </row>
-    <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="108"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="69"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1">
+      <c r="A42" s="67"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="51" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J42" s="51">
         <v>1</v>
@@ -4196,31 +3876,27 @@
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
       <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-    </row>
-    <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="85"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+    </row>
+    <row r="43" spans="1:23" ht="12" customHeight="1">
+      <c r="A43" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="50" cm="1">
+      <c r="K43" s="48" cm="1">
         <f t="array" ref="K43">SUMPRODUCT((MOD(ROW(K$45:K$60),2)=1)*K$45:K$60)</f>
         <v>24.71</v>
       </c>
@@ -4241,7 +3917,7 @@
         <v>2.21</v>
       </c>
       <c r="P43" s="33">
-        <f t="shared" ref="P43:W43" si="14">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=1)*P$45:P$60)</f>
+        <f t="shared" ref="P43:S43" si="14">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=1)*P$45:P$60)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="33">
@@ -4256,41 +3932,25 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T43" s="33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-    </row>
-    <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="80"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="86"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+    </row>
+    <row r="44" spans="1:23" ht="12" customHeight="1">
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="54">
+      <c r="K44" s="49">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
         <v>24.82</v>
       </c>
@@ -4311,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="30">
-        <f t="shared" ref="P44:W44" si="16">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=0)*P$45:P$60)</f>
+        <f t="shared" ref="P44:S44" si="16">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=0)*P$45:P$60)</f>
         <v>0</v>
       </c>
       <c r="Q44" s="35">
@@ -4326,39 +3986,23 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T44" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-    </row>
-    <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107">
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+    </row>
+    <row r="45" spans="1:23" ht="12" customHeight="1">
+      <c r="A45" s="66">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="75"/>
+      <c r="B45" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4374,23 +4018,19 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-    </row>
-    <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="76"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+    </row>
+    <row r="46" spans="1:23" ht="12" customHeight="1">
+      <c r="A46" s="67"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="62"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4406,37 +4046,33 @@
       <c r="Q46" s="42"/>
       <c r="R46" s="42"/>
       <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-    </row>
-    <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="65"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+    </row>
+    <row r="47" spans="1:23" ht="12" customHeight="1">
+      <c r="A47" s="72"/>
+      <c r="B47" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="121"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J47" s="43">
         <v>5</v>
@@ -4455,31 +4091,27 @@
       <c r="Q47" s="41"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-    </row>
-    <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="52" t="str">
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+    </row>
+    <row r="48" spans="1:23" ht="12" customHeight="1">
+      <c r="A48" s="73"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="50" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="52">
+        <v>49</v>
+      </c>
+      <c r="J48" s="50">
         <v>1</v>
       </c>
       <c r="K48" s="10">
@@ -4496,37 +4128,33 @@
       <c r="Q48" s="42"/>
       <c r="R48" s="42"/>
       <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-    </row>
-    <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="68"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+    </row>
+    <row r="49" spans="1:23" ht="12" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="59"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -4547,29 +4175,25 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-    </row>
-    <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="69"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+    </row>
+    <row r="50" spans="1:23" ht="12" customHeight="1">
+      <c r="A50" s="67"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="51" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J50" s="51">
         <v>5</v>
@@ -4590,37 +4214,33 @@
       <c r="Q50" s="42"/>
       <c r="R50" s="42"/>
       <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-    </row>
-    <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="57" t="s">
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+    </row>
+    <row r="51" spans="1:23" ht="12" customHeight="1">
+      <c r="A51" s="72"/>
+      <c r="B51" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="69"/>
+      <c r="E51" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="65"/>
+      <c r="F51" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="121"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J51" s="43">
         <v>5</v>
@@ -4641,31 +4261,27 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-    </row>
-    <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="52" t="str">
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1">
+      <c r="A52" s="73"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="50" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="52">
+        <v>54</v>
+      </c>
+      <c r="J52" s="50">
         <v>5</v>
       </c>
       <c r="K52" s="10">
@@ -4684,27 +4300,23 @@
       <c r="Q52" s="42"/>
       <c r="R52" s="42"/>
       <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-    </row>
-    <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="107">
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+    </row>
+    <row r="53" spans="1:23" ht="12" customHeight="1">
+      <c r="A53" s="66">
         <v>2</v>
       </c>
-      <c r="B53" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="75"/>
+      <c r="B53" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="86"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4720,23 +4332,19 @@
       <c r="Q53" s="41"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-    </row>
-    <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="108"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="76"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+    </row>
+    <row r="54" spans="1:23" ht="12" customHeight="1">
+      <c r="A54" s="67"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="62"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4752,37 +4360,33 @@
       <c r="Q54" s="42"/>
       <c r="R54" s="42"/>
       <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-    </row>
-    <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="107"/>
-      <c r="B55" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="68"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+    </row>
+    <row r="55" spans="1:23" ht="12" customHeight="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="69"/>
+      <c r="E55" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="59"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -4801,29 +4405,25 @@
       <c r="Q55" s="41"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
-    </row>
-    <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="108"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="69"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+    </row>
+    <row r="56" spans="1:23" ht="12" customHeight="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="51" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J56" s="51">
         <v>5</v>
@@ -4842,37 +4442,33 @@
       <c r="Q56" s="42"/>
       <c r="R56" s="42"/>
       <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-    </row>
-    <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="107"/>
-      <c r="B57" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" s="68"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+    </row>
+    <row r="57" spans="1:23" ht="12" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="69"/>
+      <c r="E57" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="59"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J57" s="8">
         <v>5</v>
@@ -4891,29 +4487,25 @@
       <c r="Q57" s="41"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45"/>
-    </row>
-    <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="108"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="69"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+    </row>
+    <row r="58" spans="1:23" ht="12" customHeight="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="51" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J58" s="51">
         <v>5</v>
@@ -4932,37 +4524,33 @@
       <c r="Q58" s="42"/>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-    </row>
-    <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-      <c r="B59" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="68"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+    </row>
+    <row r="59" spans="1:23" ht="12" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="69"/>
+      <c r="E59" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="59"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -4981,29 +4569,25 @@
       <c r="Q59" s="41"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="45"/>
-    </row>
-    <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="108"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="69"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+    </row>
+    <row r="60" spans="1:23" ht="12" customHeight="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="60"/>
       <c r="H60" s="51" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J60" s="51">
         <v>1</v>
@@ -5022,101 +4606,81 @@
       <c r="Q60" s="44"/>
       <c r="R60" s="44"/>
       <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="45"/>
-      <c r="AA60" s="45"/>
-    </row>
-    <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="85"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1">
+      <c r="A61" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="115"/>
       <c r="H61" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="49" cm="1">
+      <c r="K61" s="47" cm="1">
         <f t="array" ref="K61">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=1)*K$63:K$78)</f>
         <v>14.71</v>
       </c>
-      <c r="L61" s="48" cm="1">
+      <c r="L61" s="46" cm="1">
         <f t="array" ref="L61">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=1)*L$63:L$78)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="48" cm="1">
+      <c r="M61" s="46" cm="1">
         <f t="array" ref="M61">SUMPRODUCT((MOD(ROW(M$63:M$78),2)=1)*M$63:M$78)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="48" cm="1">
+      <c r="N61" s="46" cm="1">
         <f t="array" ref="N61">SUMPRODUCT((MOD(ROW(N$63:N$78),2)=1)*N$63:N$78)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="48" cm="1">
+      <c r="O61" s="46" cm="1">
         <f t="array" ref="O61">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=1)*O$63:O$78)</f>
         <v>12.5</v>
       </c>
-      <c r="P61" s="48" cm="1">
+      <c r="P61" s="46" cm="1">
         <f t="array" ref="P61">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=1)*P$63:P$78)</f>
         <v>2.21</v>
       </c>
-      <c r="Q61" s="48" cm="1">
+      <c r="Q61" s="46" cm="1">
         <f t="array" ref="Q61">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=1)*Q$63:Q$78)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="48" cm="1">
+      <c r="R61" s="46" cm="1">
         <f t="array" ref="R61">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=1)*R$63:R$78)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="48" cm="1">
+      <c r="S61" s="46" cm="1">
         <f t="array" ref="S61">SUMPRODUCT((MOD(ROW(S$63:S$78),2)=1)*S$63:S$78)</f>
         <v>0</v>
       </c>
-      <c r="T61" s="48" cm="1">
-        <f t="array" ref="T61">SUMPRODUCT((MOD(ROW(T$63:T$78),2)=1)*T$63:T$78)</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="48" cm="1">
-        <f t="array" ref="U61">SUMPRODUCT((MOD(ROW(U$63:U$78),2)=1)*U$63:U$78)</f>
-        <v>0</v>
-      </c>
-      <c r="V61" s="48" cm="1">
-        <f t="array" ref="V61">SUMPRODUCT((MOD(ROW(V$63:V$78),2)=1)*V$63:V$78)</f>
-        <v>0</v>
-      </c>
-      <c r="W61" s="48" cm="1">
-        <f t="array" ref="W61">SUMPRODUCT((MOD(ROW(W$63:W$78),2)=1)*W$63:W$78)</f>
-        <v>0</v>
-      </c>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="45"/>
-    </row>
-    <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="80"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="86"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+    </row>
+    <row r="62" spans="1:23" ht="12" customHeight="1">
+      <c r="A62" s="81"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="116"/>
       <c r="H62" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="50">
+      <c r="K62" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
         <v>38.209999999999994</v>
       </c>
@@ -5152,39 +4716,23 @@
         <f t="array" ref="S62">SUMPRODUCT((MOD(ROW(S$63:S$78),2)=0)*S$63:S$78)</f>
         <v>0</v>
       </c>
-      <c r="T62" s="21" cm="1">
-        <f t="array" ref="T62">SUMPRODUCT((MOD(ROW(T$63:T$78),2)=0)*T$63:T$78)</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="21" cm="1">
-        <f t="array" ref="U62">SUMPRODUCT((MOD(ROW(U$63:U$78),2)=0)*U$63:U$78)</f>
-        <v>0</v>
-      </c>
-      <c r="V62" s="21" cm="1">
-        <f t="array" ref="V62">SUMPRODUCT((MOD(ROW(V$63:V$78),2)=0)*V$63:V$78)</f>
-        <v>0</v>
-      </c>
-      <c r="W62" s="21" cm="1">
-        <f t="array" ref="W62">SUMPRODUCT((MOD(ROW(W$63:W$78),2)=0)*W$63:W$78)</f>
-        <v>0</v>
-      </c>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="45"/>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="45"/>
-    </row>
-    <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55">
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+    </row>
+    <row r="63" spans="1:23" ht="12" customHeight="1">
+      <c r="A63" s="72">
         <v>1</v>
       </c>
-      <c r="B63" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
+      <c r="B63" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="86"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5200,23 +4748,19 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="45"/>
-      <c r="Y63" s="45"/>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="45"/>
-    </row>
-    <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+    </row>
+    <row r="64" spans="1:23" ht="12" customHeight="1">
+      <c r="A64" s="73"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5232,43 +4776,39 @@
       <c r="Q64" s="42"/>
       <c r="R64" s="42"/>
       <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="45"/>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="45"/>
-    </row>
-    <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="65"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
+    </row>
+    <row r="65" spans="1:23" ht="12" customHeight="1">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="121"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J65" s="43">
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f>SUM(L65:W65)</f>
+        <f>SUM(L65:S65)</f>
         <v>5</v>
       </c>
       <c r="L65" s="41"/>
@@ -5281,35 +4821,31 @@
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="45"/>
-      <c r="Y65" s="45"/>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
-    </row>
-    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="52" t="str">
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+    </row>
+    <row r="66" spans="1:23" ht="12" customHeight="1">
+      <c r="A66" s="73"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J66" s="52">
+        <v>54</v>
+      </c>
+      <c r="J66" s="50">
         <v>5</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66:K115" si="19">SUM(L66:W66)</f>
+        <f>SUM(L66:S66)</f>
         <v>24</v>
       </c>
       <c r="L66" s="42"/>
@@ -5326,43 +4862,39 @@
       </c>
       <c r="R66" s="42"/>
       <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="45"/>
-      <c r="Y66" s="45"/>
-      <c r="Z66" s="45"/>
-      <c r="AA66" s="45"/>
-    </row>
-    <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="65"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+    </row>
+    <row r="67" spans="1:23" ht="12" customHeight="1">
+      <c r="A67" s="72"/>
+      <c r="B67" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="69"/>
+      <c r="E67" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="121"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J67" s="43">
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L67:S67)</f>
         <v>5</v>
       </c>
       <c r="L67" s="41"/>
@@ -5375,35 +4907,31 @@
       <c r="Q67" s="41"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="45"/>
-      <c r="Y67" s="45"/>
-      <c r="Z67" s="45"/>
-      <c r="AA67" s="45"/>
-    </row>
-    <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="52" t="str">
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+    </row>
+    <row r="68" spans="1:23" ht="12" customHeight="1">
+      <c r="A68" s="73"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" s="52">
+        <v>20</v>
+      </c>
+      <c r="J68" s="50">
         <v>5</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L68:S68)</f>
         <v>9</v>
       </c>
       <c r="L68" s="42"/>
@@ -5418,43 +4946,39 @@
       </c>
       <c r="R68" s="42"/>
       <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="45"/>
-      <c r="Y68" s="45"/>
-      <c r="Z68" s="45"/>
-      <c r="AA68" s="45"/>
-    </row>
-    <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55"/>
-      <c r="B69" s="57" t="s">
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+    </row>
+    <row r="69" spans="1:23" ht="12" customHeight="1">
+      <c r="A69" s="72"/>
+      <c r="B69" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="65"/>
+      <c r="F69" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="121"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J69" s="43">
         <v>5</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L69:S69)</f>
         <v>2.5</v>
       </c>
       <c r="L69" s="41"/>
@@ -5467,35 +4991,31 @@
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="45"/>
-      <c r="Y69" s="45"/>
-      <c r="Z69" s="45"/>
-      <c r="AA69" s="45"/>
-    </row>
-    <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="52" t="str">
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+    </row>
+    <row r="70" spans="1:23" ht="12" customHeight="1">
+      <c r="A70" s="73"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" s="52">
+        <v>62</v>
+      </c>
+      <c r="J70" s="50">
         <v>3</v>
       </c>
       <c r="K70" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L70:S70)</f>
         <v>3</v>
       </c>
       <c r="L70" s="42"/>
@@ -5508,27 +5028,23 @@
       </c>
       <c r="R70" s="42"/>
       <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="45"/>
-    </row>
-    <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55">
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+    </row>
+    <row r="71" spans="1:23" ht="12" customHeight="1">
+      <c r="A71" s="72">
         <v>2</v>
       </c>
-      <c r="B71" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="70"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="75"/>
+      <c r="B71" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="86"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5536,7 +5052,7 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L71:S71)</f>
         <v>0</v>
       </c>
       <c r="L71" s="41"/>
@@ -5547,23 +5063,19 @@
       <c r="Q71" s="41"/>
       <c r="R71" s="41"/>
       <c r="S71" s="41"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
-      <c r="V71" s="41"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="45"/>
-      <c r="Y71" s="45"/>
-      <c r="Z71" s="45"/>
-      <c r="AA71" s="45"/>
-    </row>
-    <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="76"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+    </row>
+    <row r="72" spans="1:23" ht="12" customHeight="1">
+      <c r="A72" s="73"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="62"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5571,7 +5083,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L72:S72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="42"/>
@@ -5582,43 +5094,39 @@
       <c r="Q72" s="42"/>
       <c r="R72" s="42"/>
       <c r="S72" s="42"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="42"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="42"/>
-      <c r="X72" s="45"/>
-      <c r="Y72" s="45"/>
-      <c r="Z72" s="45"/>
-      <c r="AA72" s="45"/>
-    </row>
-    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" s="65"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+    </row>
+    <row r="73" spans="1:23" ht="12" customHeight="1">
+      <c r="A73" s="72"/>
+      <c r="B73" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="121"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J73" s="43">
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L73:S73)</f>
         <v>1.25</v>
       </c>
       <c r="L73" s="41"/>
@@ -5631,35 +5139,31 @@
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
       <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="45"/>
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="45"/>
-      <c r="AA73" s="45"/>
-    </row>
-    <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="52" t="str">
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+    </row>
+    <row r="74" spans="1:23" ht="12" customHeight="1">
+      <c r="A74" s="73"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="50" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="52">
+        <v>20</v>
+      </c>
+      <c r="J74" s="50">
         <v>5</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L74:S74)</f>
         <v>1.25</v>
       </c>
       <c r="L74" s="42"/>
@@ -5672,43 +5176,39 @@
       </c>
       <c r="R74" s="42"/>
       <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
-      <c r="V74" s="42"/>
-      <c r="W74" s="42"/>
-      <c r="X74" s="45"/>
-      <c r="Y74" s="45"/>
-      <c r="Z74" s="45"/>
-      <c r="AA74" s="45"/>
-    </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" s="65"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+    </row>
+    <row r="75" spans="1:23" ht="12" customHeight="1">
+      <c r="A75" s="72"/>
+      <c r="B75" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="69"/>
+      <c r="E75" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="121"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J75" s="43">
         <v>5</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L75:S75)</f>
         <v>0.8</v>
       </c>
       <c r="L75" s="41"/>
@@ -5721,35 +5221,31 @@
       <c r="Q75" s="41"/>
       <c r="R75" s="41"/>
       <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="45"/>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="45"/>
-      <c r="AA75" s="45"/>
-    </row>
-    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="52" t="str">
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+    </row>
+    <row r="76" spans="1:23" ht="12" customHeight="1">
+      <c r="A76" s="73"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I76" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J76" s="52">
+        <v>20</v>
+      </c>
+      <c r="J76" s="50">
         <v>5</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L76:S76)</f>
         <v>0.8</v>
       </c>
       <c r="L76" s="42"/>
@@ -5762,43 +5258,39 @@
       </c>
       <c r="R76" s="42"/>
       <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="45"/>
-    </row>
-    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="55"/>
-      <c r="B77" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="65"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+      <c r="W76" s="45"/>
+    </row>
+    <row r="77" spans="1:23" ht="12" customHeight="1">
+      <c r="A77" s="72"/>
+      <c r="B77" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="69"/>
+      <c r="E77" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="121"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J77" s="43">
         <v>1</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L77:S77)</f>
         <v>0.16</v>
       </c>
       <c r="L77" s="41"/>
@@ -5811,35 +5303,31 @@
       <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
       <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45"/>
-      <c r="AA77" s="45"/>
-    </row>
-    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="56"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="52" t="str">
+      <c r="T77" s="45"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+    </row>
+    <row r="78" spans="1:23" ht="12" customHeight="1">
+      <c r="A78" s="73"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J78" s="52">
+      <c r="I78" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" s="50">
         <v>1</v>
       </c>
       <c r="K78" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L78:S78)</f>
         <v>0.16</v>
       </c>
       <c r="L78" s="44"/>
@@ -5852,102 +5340,82 @@
       </c>
       <c r="R78" s="44"/>
       <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="45"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="45"/>
-      <c r="AA78" s="45"/>
-    </row>
-    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="85"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+      <c r="W78" s="45"/>
+    </row>
+    <row r="79" spans="1:23" ht="12" customHeight="1">
+      <c r="A79" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="115"/>
       <c r="H79" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L79:S79)</f>
         <v>22.5</v>
       </c>
-      <c r="L79" s="48" cm="1">
+      <c r="L79" s="46" cm="1">
         <f t="array" ref="L79">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=1)*L$81:L$86)</f>
         <v>0</v>
       </c>
-      <c r="M79" s="48" cm="1">
+      <c r="M79" s="46" cm="1">
         <f t="array" ref="M79">SUMPRODUCT((MOD(ROW(M$81:M$86),2)=1)*M$81:M$86)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="48" cm="1">
+      <c r="N79" s="46" cm="1">
         <f t="array" ref="N79">SUMPRODUCT((MOD(ROW(N$81:N$86),2)=1)*N$81:N$86)</f>
         <v>0</v>
       </c>
-      <c r="O79" s="48" cm="1">
+      <c r="O79" s="46" cm="1">
         <f t="array" ref="O79">SUMPRODUCT((MOD(ROW(O$81:O$86),2)=1)*O$81:O$86)</f>
         <v>0</v>
       </c>
-      <c r="P79" s="48" cm="1">
+      <c r="P79" s="46" cm="1">
         <f t="array" ref="P79">SUMPRODUCT((MOD(ROW(P$81:P$86),2)=1)*P$81:P$86)</f>
         <v>7.5</v>
       </c>
-      <c r="Q79" s="48" cm="1">
+      <c r="Q79" s="46" cm="1">
         <f t="array" ref="Q79">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=1)*Q$81:Q$86)</f>
         <v>15</v>
       </c>
-      <c r="R79" s="48" cm="1">
+      <c r="R79" s="46" cm="1">
         <f t="array" ref="R79">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=1)*R$81:R$86)</f>
         <v>0</v>
       </c>
-      <c r="S79" s="48" cm="1">
+      <c r="S79" s="46" cm="1">
         <f t="array" ref="S79">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=1)*S$81:S$86)</f>
         <v>0</v>
       </c>
-      <c r="T79" s="48" cm="1">
-        <f t="array" ref="T79">SUMPRODUCT((MOD(ROW(T$81:T$86),2)=1)*T$81:T$86)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="48" cm="1">
-        <f t="array" ref="U79">SUMPRODUCT((MOD(ROW(U$81:U$86),2)=1)*U$81:U$86)</f>
-        <v>0</v>
-      </c>
-      <c r="V79" s="48" cm="1">
-        <f t="array" ref="V79">SUMPRODUCT((MOD(ROW(V$81:V$86),2)=1)*V$81:V$86)</f>
-        <v>0</v>
-      </c>
-      <c r="W79" s="48" cm="1">
-        <f t="array" ref="W79">SUMPRODUCT((MOD(ROW(W$81:W$86),2)=1)*W$81:W$86)</f>
-        <v>0</v>
-      </c>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
-    </row>
-    <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+    </row>
+    <row r="80" spans="1:23" ht="12" customHeight="1">
+      <c r="A80" s="81"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="116"/>
       <c r="H80" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L80:S80)</f>
         <v>10.5</v>
       </c>
       <c r="L80" s="21" cm="1">
@@ -5982,41 +5450,25 @@
         <f t="array" ref="S80">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=0)*S$81:S$86)</f>
         <v>0</v>
       </c>
-      <c r="T80" s="21" cm="1">
-        <f t="array" ref="T80">SUMPRODUCT((MOD(ROW(T$81:T$86),2)=0)*T$81:T$86)</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="21" cm="1">
-        <f t="array" ref="U80">SUMPRODUCT((MOD(ROW(U$81:U$86),2)=0)*U$81:U$86)</f>
-        <v>0</v>
-      </c>
-      <c r="V80" s="21" cm="1">
-        <f t="array" ref="V80">SUMPRODUCT((MOD(ROW(V$81:V$86),2)=0)*V$81:V$86)</f>
-        <v>0</v>
-      </c>
-      <c r="W80" s="21" cm="1">
-        <f t="array" ref="W80">SUMPRODUCT((MOD(ROW(W$81:W$86),2)=0)*W$81:W$86)</f>
-        <v>0</v>
-      </c>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45"/>
-      <c r="AA80" s="45"/>
-    </row>
-    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55">
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+    </row>
+    <row r="81" spans="1:23" ht="12" customHeight="1">
+      <c r="A81" s="72">
         <v>1</v>
       </c>
-      <c r="B81" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="70"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="73"/>
-      <c r="G81" s="75"/>
+      <c r="B81" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="86"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -6024,7 +5476,7 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L81:S81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="41"/>
@@ -6035,23 +5487,19 @@
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
       <c r="S81" s="41"/>
-      <c r="T81" s="41"/>
-      <c r="U81" s="41"/>
-      <c r="V81" s="41"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="45"/>
-      <c r="AA81" s="45"/>
-    </row>
-    <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="76"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="45"/>
+      <c r="W81" s="45"/>
+    </row>
+    <row r="82" spans="1:23" ht="12" customHeight="1">
+      <c r="A82" s="73"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="62"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -6059,7 +5507,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L82:S82)</f>
         <v>0</v>
       </c>
       <c r="L82" s="42"/>
@@ -6070,43 +5518,39 @@
       <c r="Q82" s="42"/>
       <c r="R82" s="42"/>
       <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
-      <c r="Z82" s="45"/>
-      <c r="AA82" s="45"/>
-    </row>
-    <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="65"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+    </row>
+    <row r="83" spans="1:23" ht="12" customHeight="1">
+      <c r="A83" s="72"/>
+      <c r="B83" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="69"/>
+      <c r="E83" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="121"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J83" s="43">
         <v>3</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L83:S83)</f>
         <v>13.5</v>
       </c>
       <c r="L83" s="41"/>
@@ -6121,35 +5565,31 @@
       </c>
       <c r="R83" s="41"/>
       <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="45"/>
-      <c r="Y83" s="45"/>
-      <c r="Z83" s="45"/>
-      <c r="AA83" s="45"/>
-    </row>
-    <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="52" t="str">
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="45"/>
+    </row>
+    <row r="84" spans="1:23" ht="12" customHeight="1">
+      <c r="A84" s="73"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I84" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J84" s="52">
+        <v>68</v>
+      </c>
+      <c r="J84" s="50">
         <v>3</v>
       </c>
       <c r="K84" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L84:S84)</f>
         <v>7.5</v>
       </c>
       <c r="L84" s="42"/>
@@ -6164,43 +5604,39 @@
         <v>4.5</v>
       </c>
       <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="42"/>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="45"/>
-    </row>
-    <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="55"/>
-      <c r="B85" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="60"/>
-      <c r="E85" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="63" t="s">
+      <c r="T84" s="45"/>
+      <c r="U84" s="45"/>
+      <c r="V84" s="45"/>
+      <c r="W84" s="45"/>
+    </row>
+    <row r="85" spans="1:23" ht="12" customHeight="1">
+      <c r="A85" s="72"/>
+      <c r="B85" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G85" s="65"/>
+      <c r="C85" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="69"/>
+      <c r="E85" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="121"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J85" s="43">
         <v>2</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L85:S85)</f>
         <v>9</v>
       </c>
       <c r="L85" s="41"/>
@@ -6215,35 +5651,31 @@
       </c>
       <c r="R85" s="41"/>
       <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
-      <c r="V85" s="41"/>
-      <c r="W85" s="41"/>
-      <c r="X85" s="45"/>
-      <c r="Y85" s="45"/>
-      <c r="Z85" s="45"/>
-      <c r="AA85" s="45"/>
-    </row>
-    <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="56"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="52" t="str">
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="45"/>
+    </row>
+    <row r="86" spans="1:23" ht="12" customHeight="1">
+      <c r="A86" s="73"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J86" s="52">
+        <v>70</v>
+      </c>
+      <c r="J86" s="50">
         <v>2</v>
       </c>
       <c r="K86" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L86:S86)</f>
         <v>3</v>
       </c>
       <c r="L86" s="42"/>
@@ -6256,32 +5688,28 @@
         <v>3</v>
       </c>
       <c r="S86" s="42"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="45"/>
-      <c r="Y86" s="45"/>
-      <c r="Z86" s="45"/>
-      <c r="AA86" s="45"/>
-    </row>
-    <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="85"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+    </row>
+    <row r="87" spans="1:23" ht="12" customHeight="1">
+      <c r="A87" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="115"/>
       <c r="H87" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L87:S87)</f>
         <v>16.61</v>
       </c>
       <c r="L87" s="21" cm="1">
@@ -6316,42 +5744,26 @@
         <f t="array" ref="S87">SUMPRODUCT((MOD(ROW(S$89:S$100),2)=1)*S$89:S$100)</f>
         <v>6.41</v>
       </c>
-      <c r="T87" s="21" cm="1">
-        <f t="array" ref="T87">SUMPRODUCT((MOD(ROW(T$89:T$100),2)=1)*T$89:T$100)</f>
-        <v>0</v>
-      </c>
-      <c r="U87" s="21" cm="1">
-        <f t="array" ref="U87">SUMPRODUCT((MOD(ROW(U$89:U$100),2)=1)*U$89:U$100)</f>
-        <v>0</v>
-      </c>
-      <c r="V87" s="21" cm="1">
-        <f t="array" ref="V87">SUMPRODUCT((MOD(ROW(V$89:V$100),2)=1)*V$89:V$100)</f>
-        <v>0</v>
-      </c>
-      <c r="W87" s="46" cm="1">
-        <f t="array" ref="W87">SUMPRODUCT((MOD(ROW(W$89:W$100),2)=1)*W$89:W$100)</f>
-        <v>0</v>
-      </c>
-      <c r="X87" s="45"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="45"/>
-    </row>
-    <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="80"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="86"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+    </row>
+    <row r="88" spans="1:23" ht="12" customHeight="1">
+      <c r="A88" s="81"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="116"/>
       <c r="H88" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L88:S88)</f>
         <v>2.5700000000000003</v>
       </c>
       <c r="L88" s="22" cm="1">
@@ -6386,39 +5798,23 @@
         <f t="array" ref="S88">SUMPRODUCT((MOD(ROW(S$89:S$100),2)=0)*S$89:S$100)</f>
         <v>0</v>
       </c>
-      <c r="T88" s="22" cm="1">
-        <f t="array" ref="T88">SUMPRODUCT((MOD(ROW(T$89:T$100),2)=0)*T$89:T$100)</f>
-        <v>0</v>
-      </c>
-      <c r="U88" s="22" cm="1">
-        <f t="array" ref="U88">SUMPRODUCT((MOD(ROW(U$89:U$100),2)=0)*U$89:U$100)</f>
-        <v>0</v>
-      </c>
-      <c r="V88" s="22" cm="1">
-        <f t="array" ref="V88">SUMPRODUCT((MOD(ROW(V$89:V$100),2)=0)*V$89:V$100)</f>
-        <v>0</v>
-      </c>
-      <c r="W88" s="47" cm="1">
-        <f t="array" ref="W88">SUMPRODUCT((MOD(ROW(W$89:W$100),2)=0)*W$89:W$100)</f>
-        <v>0</v>
-      </c>
-      <c r="X88" s="45"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
-      <c r="AA88" s="45"/>
-    </row>
-    <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55">
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+    </row>
+    <row r="89" spans="1:23" ht="12" customHeight="1">
+      <c r="A89" s="72">
         <v>1</v>
       </c>
-      <c r="B89" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="75"/>
+      <c r="B89" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="86"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6426,7 +5822,7 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L89:S89)</f>
         <v>0</v>
       </c>
       <c r="L89" s="41"/>
@@ -6437,23 +5833,19 @@
       <c r="Q89" s="41"/>
       <c r="R89" s="41"/>
       <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45"/>
-      <c r="AA89" s="45"/>
-    </row>
-    <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="76"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+    </row>
+    <row r="90" spans="1:23" ht="12" customHeight="1">
+      <c r="A90" s="73"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="62"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6461,7 +5853,7 @@
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L90:S90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="42"/>
@@ -6472,41 +5864,39 @@
       <c r="Q90" s="42"/>
       <c r="R90" s="42"/>
       <c r="S90" s="42"/>
-      <c r="T90" s="42"/>
-      <c r="U90" s="42"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="42"/>
-      <c r="X90" s="45"/>
-      <c r="Y90" s="45"/>
-      <c r="Z90" s="45"/>
-      <c r="AA90" s="45"/>
-    </row>
-    <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="45"/>
+      <c r="W90" s="45"/>
+    </row>
+    <row r="91" spans="1:23" ht="12" customHeight="1">
+      <c r="A91" s="72"/>
+      <c r="B91" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="69"/>
+      <c r="E91" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="121"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J91" s="43">
         <v>2</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L91:S91)</f>
         <v>15</v>
       </c>
       <c r="L91" s="41"/>
@@ -6521,35 +5911,31 @@
       <c r="S91" s="41">
         <v>5</v>
       </c>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="41"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="45"/>
-      <c r="Z91" s="45"/>
-      <c r="AA91" s="45"/>
-    </row>
-    <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="52" t="str">
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+    </row>
+    <row r="92" spans="1:23" ht="12" customHeight="1">
+      <c r="A92" s="73"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I92" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="J92" s="52">
+        <v>74</v>
+      </c>
+      <c r="J92" s="50">
         <v>2</v>
       </c>
       <c r="K92" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L92:S92)</f>
         <v>1</v>
       </c>
       <c r="L92" s="42"/>
@@ -6562,41 +5948,39 @@
         <v>1</v>
       </c>
       <c r="S92" s="42"/>
-      <c r="T92" s="42"/>
-      <c r="U92" s="42"/>
-      <c r="V92" s="42"/>
-      <c r="W92" s="42"/>
-      <c r="X92" s="45"/>
-      <c r="Y92" s="45"/>
-      <c r="Z92" s="45"/>
-      <c r="AA92" s="45"/>
-    </row>
-    <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="55"/>
-      <c r="B93" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="63"/>
-      <c r="G93" s="65"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+    </row>
+    <row r="93" spans="1:23" ht="12" customHeight="1">
+      <c r="A93" s="72"/>
+      <c r="B93" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="69"/>
+      <c r="E93" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="121"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="43" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="J93" s="43">
         <v>1</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L93:S93)</f>
         <v>0.2</v>
       </c>
       <c r="L93" s="41"/>
@@ -6609,35 +5993,31 @@
         <v>0.2</v>
       </c>
       <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="45"/>
-      <c r="Y93" s="45"/>
-      <c r="Z93" s="45"/>
-      <c r="AA93" s="45"/>
-    </row>
-    <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="52" t="str">
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+      <c r="W93" s="45"/>
+    </row>
+    <row r="94" spans="1:23" ht="12" customHeight="1">
+      <c r="A94" s="73"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="50" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I94" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J94" s="52">
+      <c r="I94" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94" s="50">
         <v>1</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L94:S94)</f>
         <v>0.16</v>
       </c>
       <c r="L94" s="42"/>
@@ -6650,27 +6030,23 @@
         <v>0.16</v>
       </c>
       <c r="S94" s="42"/>
-      <c r="T94" s="42"/>
-      <c r="U94" s="42"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="42"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="45"/>
-      <c r="Z94" s="45"/>
-      <c r="AA94" s="45"/>
-    </row>
-    <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="55">
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+    </row>
+    <row r="95" spans="1:23" ht="12" customHeight="1">
+      <c r="A95" s="72">
         <v>2</v>
       </c>
-      <c r="B95" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="70"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="75"/>
+      <c r="B95" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="86"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6678,7 +6054,7 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L95:S95)</f>
         <v>0</v>
       </c>
       <c r="L95" s="41"/>
@@ -6689,23 +6065,19 @@
       <c r="Q95" s="41"/>
       <c r="R95" s="41"/>
       <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
-      <c r="V95" s="41"/>
-      <c r="W95" s="41"/>
-      <c r="X95" s="45"/>
-      <c r="Y95" s="45"/>
-      <c r="Z95" s="45"/>
-      <c r="AA95" s="45"/>
-    </row>
-    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="76"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="45"/>
+      <c r="V95" s="45"/>
+      <c r="W95" s="45"/>
+    </row>
+    <row r="96" spans="1:23" ht="12" customHeight="1">
+      <c r="A96" s="73"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="62"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6713,7 +6085,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L96:S96)</f>
         <v>0</v>
       </c>
       <c r="L96" s="42"/>
@@ -6724,41 +6096,39 @@
       <c r="Q96" s="42"/>
       <c r="R96" s="42"/>
       <c r="S96" s="42"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="42"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="42"/>
-      <c r="X96" s="45"/>
-      <c r="Y96" s="45"/>
-      <c r="Z96" s="45"/>
-      <c r="AA96" s="45"/>
-    </row>
-    <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="45"/>
+      <c r="V96" s="45"/>
+      <c r="W96" s="45"/>
+    </row>
+    <row r="97" spans="1:23" ht="12" customHeight="1">
+      <c r="A97" s="72"/>
+      <c r="B97" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="69"/>
+      <c r="E97" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="121"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I97" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J97" s="43">
         <v>5</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L97:S97)</f>
         <v>1.25</v>
       </c>
       <c r="L97" s="41"/>
@@ -6771,35 +6141,31 @@
       <c r="S97" s="41">
         <v>1.25</v>
       </c>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="41"/>
-      <c r="W97" s="41"/>
-      <c r="X97" s="45"/>
-      <c r="Y97" s="45"/>
-      <c r="Z97" s="45"/>
-      <c r="AA97" s="45"/>
-    </row>
-    <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="52" t="str">
+      <c r="T97" s="45"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="45"/>
+      <c r="W97" s="45"/>
+    </row>
+    <row r="98" spans="1:23" ht="12" customHeight="1">
+      <c r="A98" s="73"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I98" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" s="52">
+        <v>20</v>
+      </c>
+      <c r="J98" s="50">
         <v>5</v>
       </c>
       <c r="K98" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L98:S98)</f>
         <v>1.25</v>
       </c>
       <c r="L98" s="42"/>
@@ -6812,41 +6178,39 @@
         <v>1.25</v>
       </c>
       <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
-      <c r="U98" s="42"/>
-      <c r="V98" s="42"/>
-      <c r="W98" s="42"/>
-      <c r="X98" s="45"/>
-      <c r="Y98" s="45"/>
-      <c r="Z98" s="45"/>
-      <c r="AA98" s="45"/>
-    </row>
-    <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="55"/>
-      <c r="B99" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F99" s="63"/>
-      <c r="G99" s="65"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
+      <c r="V98" s="45"/>
+      <c r="W98" s="45"/>
+    </row>
+    <row r="99" spans="1:23" ht="12" customHeight="1">
+      <c r="A99" s="72"/>
+      <c r="B99" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="69"/>
+      <c r="E99" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="121"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J99" s="43">
         <v>1</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L99:S99)</f>
         <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
@@ -6859,35 +6223,31 @@
       <c r="S99" s="41">
         <v>0.16</v>
       </c>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="45"/>
-      <c r="Y99" s="45"/>
-      <c r="Z99" s="45"/>
-      <c r="AA99" s="45"/>
-    </row>
-    <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="56"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="52" t="str">
+      <c r="T99" s="45"/>
+      <c r="U99" s="45"/>
+      <c r="V99" s="45"/>
+      <c r="W99" s="45"/>
+    </row>
+    <row r="100" spans="1:23" ht="12" customHeight="1">
+      <c r="A100" s="73"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I100" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="J100" s="52">
+        <v>78</v>
+      </c>
+      <c r="J100" s="50">
         <v>1</v>
       </c>
       <c r="K100" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L100:S100)</f>
         <v>0.16</v>
       </c>
       <c r="L100" s="42"/>
@@ -6900,32 +6260,28 @@
         <v>0.16</v>
       </c>
       <c r="S100" s="42"/>
-      <c r="T100" s="42"/>
-      <c r="U100" s="42"/>
-      <c r="V100" s="42"/>
-      <c r="W100" s="42"/>
-      <c r="X100" s="45"/>
-      <c r="Y100" s="45"/>
-      <c r="Z100" s="45"/>
-      <c r="AA100" s="45"/>
-    </row>
-    <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="85"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="45"/>
+      <c r="V100" s="45"/>
+      <c r="W100" s="45"/>
+    </row>
+    <row r="101" spans="1:23" ht="12" customHeight="1">
+      <c r="A101" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="79"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="115"/>
       <c r="H101" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
       <c r="K101" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L101:S101)</f>
         <v>4.07</v>
       </c>
       <c r="L101" s="21" cm="1">
@@ -6960,43 +6316,27 @@
         <f t="array" ref="S101">SUMPRODUCT((MOD(ROW(S$103:S$114),2)=1)*S$103:S$114)</f>
         <v>4.07</v>
       </c>
-      <c r="T101" s="21" cm="1">
-        <f t="array" ref="T101">SUMPRODUCT((MOD(ROW(T$103:T$114),2)=1)*T$103:T$114)</f>
-        <v>0</v>
-      </c>
-      <c r="U101" s="21" cm="1">
-        <f t="array" ref="U101">SUMPRODUCT((MOD(ROW(U$103:U$114),2)=1)*U$103:U$114)</f>
-        <v>0</v>
-      </c>
-      <c r="V101" s="21" cm="1">
-        <f t="array" ref="V101">SUMPRODUCT((MOD(ROW(V$103:V$114),2)=1)*V$103:V$114)</f>
-        <v>0</v>
-      </c>
-      <c r="W101" s="46" cm="1">
-        <f t="array" ref="W101">SUMPRODUCT((MOD(ROW(W$103:W$114),2)=1)*W$103:W$114)</f>
-        <v>0</v>
-      </c>
-      <c r="X101" s="45"/>
-      <c r="Y101" s="45"/>
-      <c r="Z101" s="45"/>
-      <c r="AA101" s="45"/>
-    </row>
-    <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="80"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="84"/>
-      <c r="G102" s="86"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45"/>
+      <c r="V101" s="45"/>
+      <c r="W101" s="45"/>
+    </row>
+    <row r="102" spans="1:23" ht="12" customHeight="1">
+      <c r="A102" s="81"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="116"/>
       <c r="H102" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="9">
-        <f t="shared" si="19"/>
-        <v>4.2300000000000004</v>
+        <f>SUM(L102:S102)</f>
+        <v>4.1100000000000003</v>
       </c>
       <c r="L102" s="22" cm="1">
         <f t="array" ref="L102">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=0)*L$103:L$114)</f>
@@ -7028,41 +6368,25 @@
       </c>
       <c r="S102" s="22" cm="1">
         <f t="array" ref="S102">SUMPRODUCT((MOD(ROW(S$103:S$114),2)=0)*S$103:S$114)</f>
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="T102" s="22" cm="1">
-        <f t="array" ref="T102">SUMPRODUCT((MOD(ROW(T$103:T$114),2)=0)*T$103:T$114)</f>
-        <v>0</v>
-      </c>
-      <c r="U102" s="22" cm="1">
-        <f t="array" ref="U102">SUMPRODUCT((MOD(ROW(U$103:U$114),2)=0)*U$103:U$114)</f>
-        <v>0</v>
-      </c>
-      <c r="V102" s="22" cm="1">
-        <f t="array" ref="V102">SUMPRODUCT((MOD(ROW(V$103:V$114),2)=0)*V$103:V$114)</f>
-        <v>0</v>
-      </c>
-      <c r="W102" s="47" cm="1">
-        <f t="array" ref="W102">SUMPRODUCT((MOD(ROW(W$103:W$114),2)=0)*W$103:W$114)</f>
-        <v>0</v>
-      </c>
-      <c r="X102" s="45"/>
-      <c r="Y102" s="45"/>
-      <c r="Z102" s="45"/>
-      <c r="AA102" s="45"/>
-    </row>
-    <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="T102" s="45"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="45"/>
+    </row>
+    <row r="103" spans="1:23" ht="12" customHeight="1">
+      <c r="A103" s="72">
         <v>1</v>
       </c>
-      <c r="B103" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="75"/>
+      <c r="B103" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="86"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -7070,7 +6394,7 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
       <c r="K103" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L103:S103)</f>
         <v>0</v>
       </c>
       <c r="L103" s="41"/>
@@ -7081,23 +6405,19 @@
       <c r="Q103" s="41"/>
       <c r="R103" s="41"/>
       <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-      <c r="W103" s="41"/>
-      <c r="X103" s="45"/>
-      <c r="Y103" s="45"/>
-      <c r="Z103" s="45"/>
-      <c r="AA103" s="45"/>
-    </row>
-    <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="76"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
+      <c r="V103" s="45"/>
+      <c r="W103" s="45"/>
+    </row>
+    <row r="104" spans="1:23" ht="12" customHeight="1">
+      <c r="A104" s="73"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="62"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -7105,7 +6425,7 @@
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L104:S104)</f>
         <v>0</v>
       </c>
       <c r="L104" s="42"/>
@@ -7116,41 +6436,39 @@
       <c r="Q104" s="42"/>
       <c r="R104" s="42"/>
       <c r="S104" s="42"/>
-      <c r="T104" s="42"/>
-      <c r="U104" s="42"/>
-      <c r="V104" s="42"/>
-      <c r="W104" s="42"/>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
-      <c r="Z104" s="45"/>
-      <c r="AA104" s="45"/>
-    </row>
-    <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45"/>
+      <c r="V104" s="45"/>
+      <c r="W104" s="45"/>
+    </row>
+    <row r="105" spans="1:23" ht="12" customHeight="1">
+      <c r="A105" s="72"/>
+      <c r="B105" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="69"/>
+      <c r="E105" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="121"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I105" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J105" s="43">
         <v>5</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L105:S105)</f>
         <v>2.5</v>
       </c>
       <c r="L105" s="41"/>
@@ -7163,35 +6481,31 @@
       <c r="S105" s="41">
         <v>2.5</v>
       </c>
-      <c r="T105" s="41"/>
-      <c r="U105" s="41"/>
-      <c r="V105" s="41"/>
-      <c r="W105" s="41"/>
-      <c r="X105" s="45"/>
-      <c r="Y105" s="45"/>
-      <c r="Z105" s="45"/>
-      <c r="AA105" s="45"/>
-    </row>
-    <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="56"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="52" t="str">
+      <c r="T105" s="45"/>
+      <c r="U105" s="45"/>
+      <c r="V105" s="45"/>
+      <c r="W105" s="45"/>
+    </row>
+    <row r="106" spans="1:23" ht="12" customHeight="1">
+      <c r="A106" s="73"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I106" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" s="52">
+        <v>20</v>
+      </c>
+      <c r="J106" s="50">
         <v>5</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L106:S106)</f>
         <v>2.5</v>
       </c>
       <c r="L106" s="42"/>
@@ -7204,41 +6518,39 @@
       <c r="S106" s="42">
         <v>2.5</v>
       </c>
-      <c r="T106" s="42"/>
-      <c r="U106" s="42"/>
-      <c r="V106" s="42"/>
-      <c r="W106" s="42"/>
-      <c r="X106" s="45"/>
-      <c r="Y106" s="45"/>
-      <c r="Z106" s="45"/>
-      <c r="AA106" s="45"/>
-    </row>
-    <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
-      <c r="B107" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C107" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="63"/>
-      <c r="G107" s="65"/>
+      <c r="T106" s="45"/>
+      <c r="U106" s="45"/>
+      <c r="V106" s="45"/>
+      <c r="W106" s="45"/>
+    </row>
+    <row r="107" spans="1:23" ht="12" customHeight="1">
+      <c r="A107" s="72"/>
+      <c r="B107" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="69"/>
+      <c r="E107" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="121"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I107" s="43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J107" s="43">
         <v>1</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L107:S107)</f>
         <v>0.16</v>
       </c>
       <c r="L107" s="41"/>
@@ -7251,36 +6563,32 @@
       <c r="S107" s="41">
         <v>0.16</v>
       </c>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
-      <c r="W107" s="41"/>
-      <c r="X107" s="45"/>
-      <c r="Y107" s="45"/>
-      <c r="Z107" s="45"/>
-      <c r="AA107" s="45"/>
-    </row>
-    <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="56"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="52" t="str">
+      <c r="T107" s="45"/>
+      <c r="U107" s="45"/>
+      <c r="V107" s="45"/>
+      <c r="W107" s="45"/>
+    </row>
+    <row r="108" spans="1:23" ht="12" customHeight="1">
+      <c r="A108" s="73"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="50" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I108" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J108" s="52">
+      <c r="I108" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J108" s="50">
         <v>1</v>
       </c>
       <c r="K108" s="9">
-        <f t="shared" si="19"/>
-        <v>0.16</v>
+        <f>SUM(L108:S108)</f>
+        <v>0.2</v>
       </c>
       <c r="L108" s="42"/>
       <c r="M108" s="42"/>
@@ -7290,29 +6598,25 @@
       <c r="Q108" s="42"/>
       <c r="R108" s="42"/>
       <c r="S108" s="42">
-        <v>0.16</v>
-      </c>
-      <c r="T108" s="42"/>
-      <c r="U108" s="42"/>
-      <c r="V108" s="42"/>
-      <c r="W108" s="42"/>
-      <c r="X108" s="45"/>
-      <c r="Y108" s="45"/>
-      <c r="Z108" s="45"/>
-      <c r="AA108" s="45"/>
-    </row>
-    <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="T108" s="45"/>
+      <c r="U108" s="45"/>
+      <c r="V108" s="45"/>
+      <c r="W108" s="45"/>
+    </row>
+    <row r="109" spans="1:23" ht="12" customHeight="1">
+      <c r="A109" s="72">
         <v>2</v>
       </c>
-      <c r="B109" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="75"/>
+      <c r="B109" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="86"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7320,7 +6624,7 @@
       <c r="I109" s="24"/>
       <c r="J109" s="24"/>
       <c r="K109" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L109:S109)</f>
         <v>0</v>
       </c>
       <c r="L109" s="41"/>
@@ -7331,23 +6635,19 @@
       <c r="Q109" s="41"/>
       <c r="R109" s="41"/>
       <c r="S109" s="41"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="41"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="41"/>
-      <c r="X109" s="45"/>
-      <c r="Y109" s="45"/>
-      <c r="Z109" s="45"/>
-      <c r="AA109" s="45"/>
-    </row>
-    <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="56"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="76"/>
+      <c r="T109" s="45"/>
+      <c r="U109" s="45"/>
+      <c r="V109" s="45"/>
+      <c r="W109" s="45"/>
+    </row>
+    <row r="110" spans="1:23" ht="12" customHeight="1">
+      <c r="A110" s="73"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="62"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7355,7 +6655,7 @@
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L110:S110)</f>
         <v>0</v>
       </c>
       <c r="L110" s="42"/>
@@ -7366,41 +6666,39 @@
       <c r="Q110" s="42"/>
       <c r="R110" s="42"/>
       <c r="S110" s="42"/>
-      <c r="T110" s="42"/>
-      <c r="U110" s="42"/>
-      <c r="V110" s="42"/>
-      <c r="W110" s="42"/>
-      <c r="X110" s="45"/>
-      <c r="Y110" s="45"/>
-      <c r="Z110" s="45"/>
-      <c r="AA110" s="45"/>
-    </row>
-    <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="45"/>
+      <c r="W110" s="45"/>
+    </row>
+    <row r="111" spans="1:23" ht="12" customHeight="1">
+      <c r="A111" s="72"/>
+      <c r="B111" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="69"/>
+      <c r="E111" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="121"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I111" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J111" s="43">
         <v>5</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L111:S111)</f>
         <v>1.25</v>
       </c>
       <c r="L111" s="41"/>
@@ -7413,35 +6711,31 @@
       <c r="S111" s="41">
         <v>1.25</v>
       </c>
-      <c r="T111" s="41"/>
-      <c r="U111" s="41"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="41"/>
-      <c r="X111" s="45"/>
-      <c r="Y111" s="45"/>
-      <c r="Z111" s="45"/>
-      <c r="AA111" s="45"/>
-    </row>
-    <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="56"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="58"/>
-      <c r="H112" s="52" t="str">
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="45"/>
+    </row>
+    <row r="112" spans="1:23" ht="12" customHeight="1">
+      <c r="A112" s="73"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="50" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" s="52">
+      <c r="I112" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="50">
         <v>5</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L112:S112)</f>
         <v>1.25</v>
       </c>
       <c r="L112" s="42"/>
@@ -7454,41 +6748,39 @@
       <c r="S112" s="42">
         <v>1.25</v>
       </c>
-      <c r="T112" s="42"/>
-      <c r="U112" s="42"/>
-      <c r="V112" s="42"/>
-      <c r="W112" s="42"/>
-      <c r="X112" s="45"/>
-      <c r="Y112" s="45"/>
-      <c r="Z112" s="45"/>
-      <c r="AA112" s="45"/>
-    </row>
-    <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="55"/>
-      <c r="B113" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" s="63"/>
-      <c r="G113" s="65"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="45"/>
+      <c r="V112" s="45"/>
+      <c r="W112" s="45"/>
+    </row>
+    <row r="113" spans="1:23" ht="12" customHeight="1">
+      <c r="A113" s="72"/>
+      <c r="B113" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="69"/>
+      <c r="E113" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="121"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J113" s="43">
         <v>1</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="19"/>
+        <f>SUM(L113:S113)</f>
         <v>0.16</v>
       </c>
       <c r="L113" s="41"/>
@@ -7501,36 +6793,32 @@
       <c r="S113" s="41">
         <v>0.16</v>
       </c>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="41"/>
-      <c r="X113" s="45"/>
-      <c r="Y113" s="45"/>
-      <c r="Z113" s="45"/>
-      <c r="AA113" s="45"/>
-    </row>
-    <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="56"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="52" t="str">
+      <c r="T113" s="45"/>
+      <c r="U113" s="45"/>
+      <c r="V113" s="45"/>
+      <c r="W113" s="45"/>
+    </row>
+    <row r="114" spans="1:23" ht="12" customHeight="1">
+      <c r="A114" s="73"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="50" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I114" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="J114" s="52">
+      <c r="I114" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J114" s="50">
         <v>1</v>
       </c>
       <c r="K114" s="9">
-        <f t="shared" si="19"/>
-        <v>0.32</v>
+        <f>SUM(L114:S114)</f>
+        <v>0.16</v>
       </c>
       <c r="L114" s="42"/>
       <c r="M114" s="42"/>
@@ -7540,20 +6828,16 @@
       <c r="Q114" s="42"/>
       <c r="R114" s="42"/>
       <c r="S114" s="42">
-        <v>0.32</v>
-      </c>
-      <c r="T114" s="42"/>
-      <c r="U114" s="42"/>
-      <c r="V114" s="42"/>
-      <c r="W114" s="42"/>
-      <c r="X114" s="45"/>
-      <c r="Y114" s="45"/>
-      <c r="Z114" s="45"/>
-      <c r="AA114" s="45"/>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
+        <v>0.16</v>
+      </c>
+      <c r="T114" s="45"/>
+      <c r="U114" s="45"/>
+      <c r="V114" s="45"/>
+      <c r="W114" s="45"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="K115" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K115" si="19">SUM(L115:W115)</f>
         <v>0</v>
       </c>
       <c r="L115" s="36"/>
@@ -7573,45 +6857,272 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+  <mergeCells count="321">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7636,274 +7147,41 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
+  <conditionalFormatting sqref="P25:S38 L41:S42 L89:S100 L45:S54 L81:S86 L55:M60 O55:S60 L63:S78 L103:S114 L9:S22 L25:O40">
     <cfRule type="expression" dxfId="11" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -7911,7 +7189,7 @@
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:W40">
+  <conditionalFormatting sqref="P39:S40">
     <cfRule type="expression" dxfId="9" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P39), P39&gt;0)</formula>
     </cfRule>
@@ -7980,15 +7258,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -8172,37 +7441,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
 </file>
--- a/00_mamagement/WBSガントチャート(第二反復) .xlsx
+++ b/00_mamagement/WBSガントチャート(第二反復) .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{A4279083-635C-4A93-B5DB-E0065B6BF639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66859A50-7AC7-4897-BC65-71DAE1CC928D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0D41F-9C74-469B-B378-F09859586177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="315" windowWidth="20280" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="135" windowWidth="20670" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,12 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,14 +94,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -486,7 +484,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1370,6 +1368,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,37 +1479,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,95 +1531,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1526,12 +1560,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1549,36 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2146,13 +2144,13 @@
   <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F113" sqref="F113:F114"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2167,20 +2165,20 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="101" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="89" t="s">
@@ -2192,108 +2190,108 @@
       <c r="J1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="84">
         <v>43990</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55">
+      <c r="M1" s="85"/>
+      <c r="N1" s="84">
         <v>43991</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="55">
+      <c r="O1" s="85"/>
+      <c r="P1" s="84">
         <v>43992</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="55">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="84">
         <v>43993</v>
       </c>
-      <c r="S1" s="56"/>
+      <c r="S1" s="85"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="52" t="s">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="108"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="52" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="87"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="52" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="53"/>
+      <c r="S2" s="87"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
       <c r="W2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="54" t="s">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="108"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="54"/>
+      <c r="S3" s="88"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="114"/>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="109"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2323,16 +2321,16 @@
       <c r="V4" s="45"/>
       <c r="W4" s="45"/>
     </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="98" t="s">
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="119"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2343,8 +2341,8 @@
         <v>5</v>
       </c>
       <c r="K5" s="38">
-        <f>SUM(K7,K23,K43)</f>
-        <v>35.03</v>
+        <f>SUM(K7,K23,K43,K61,K79,K87,K101)</f>
+        <v>92.920000000000016</v>
       </c>
       <c r="L5" s="17">
         <f>SUM(L7,L23,L43,L61,L79,L87,L101)</f>
@@ -2383,24 +2381,26 @@
       <c r="V5" s="45"/>
       <c r="W5" s="45"/>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="120"/>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
       <c r="K6" s="40">
-        <f>SUM(K8,K24,K44)</f>
-        <v>35.370000000000005</v>
+        <f>SUM(K8,K24,K44,K62,K80,K88,K102)</f>
+        <v>90.76</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:S6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
@@ -2439,23 +2439,25 @@
       <c r="V6" s="45"/>
       <c r="W6" s="45"/>
     </row>
-    <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="109"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
       <c r="K7" s="14">
         <f t="shared" ref="K7:O7" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
         <v>4.97</v>
@@ -2497,21 +2499,23 @@
       <c r="V7" s="45"/>
       <c r="W7" s="45"/>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="110"/>
+    <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="4">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
         <v>5.42</v>
@@ -2553,18 +2557,18 @@
       <c r="V8" s="45"/>
       <c r="W8" s="45"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="66">
+    <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="104">
         <v>1</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2582,14 +2586,14 @@
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="62"/>
+    <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="105"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2607,22 +2611,22 @@
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
     </row>
-    <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="65" t="s">
+    <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="104"/>
+      <c r="B11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2652,14 +2656,14 @@
       <c r="V11" s="45"/>
       <c r="W11" s="45"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="60"/>
+    <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="105"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="51" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2689,22 +2693,22 @@
       <c r="V12" s="45"/>
       <c r="W12" s="45"/>
     </row>
-    <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="104"/>
+      <c r="B13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2734,14 +2738,14 @@
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
     </row>
-    <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="60"/>
+    <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="105"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="51" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2771,18 +2775,18 @@
       <c r="V14" s="45"/>
       <c r="W14" s="45"/>
     </row>
-    <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="66">
+    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="104">
         <v>2</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2803,14 +2807,14 @@
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
     </row>
-    <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
+    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="105"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2831,22 +2835,22 @@
       <c r="V16" s="45"/>
       <c r="W16" s="45"/>
     </row>
-    <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65" t="s">
+    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="104"/>
+      <c r="B17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="59"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2876,14 +2880,14 @@
       <c r="V17" s="45"/>
       <c r="W17" s="45"/>
     </row>
-    <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="60"/>
+    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="105"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="51" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2913,22 +2917,22 @@
       <c r="V18" s="45"/>
       <c r="W18" s="45"/>
     </row>
-    <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74" t="s">
+    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="76" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2958,14 +2962,14 @@
       <c r="V19" s="45"/>
       <c r="W19" s="45"/>
     </row>
-    <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="75"/>
+    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2995,22 +2999,22 @@
       <c r="V20" s="45"/>
       <c r="W20" s="45"/>
     </row>
-    <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="65" t="s">
+    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="104"/>
+      <c r="B21" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="57" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3040,14 +3044,14 @@
       <c r="V21" s="45"/>
       <c r="W21" s="45"/>
     </row>
-    <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="60"/>
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="105"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="51" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3077,16 +3081,16 @@
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
     </row>
-    <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="115"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3133,14 +3137,14 @@
       <c r="V23" s="45"/>
       <c r="W23" s="45"/>
     </row>
-    <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="116"/>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="7" t="s">
         <v>21</v>
       </c>
@@ -3187,18 +3191,18 @@
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
     </row>
-    <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="66">
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="104">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="61"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3219,14 +3223,14 @@
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
     </row>
-    <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="62"/>
+    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="105"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3247,22 +3251,22 @@
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
     </row>
-    <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="65" t="s">
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="104"/>
+      <c r="B27" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="57" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="59"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3292,14 +3296,14 @@
       <c r="V27" s="45"/>
       <c r="W27" s="45"/>
     </row>
-    <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="60"/>
+    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="105"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="51" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3329,22 +3333,22 @@
       <c r="V28" s="45"/>
       <c r="W28" s="45"/>
     </row>
-    <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="65" t="s">
+    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="104"/>
+      <c r="B29" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="59"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3374,14 +3378,14 @@
       <c r="V29" s="45"/>
       <c r="W29" s="45"/>
     </row>
-    <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="60"/>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="105"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="51" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3411,22 +3415,22 @@
       <c r="V30" s="45"/>
       <c r="W30" s="45"/>
     </row>
-    <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="65" t="s">
+    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="104"/>
+      <c r="B31" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="57" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="59"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3456,14 +3460,14 @@
       <c r="V31" s="45"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="60"/>
+    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="105"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="51" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3493,22 +3497,22 @@
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
     </row>
-    <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="65" t="s">
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="104"/>
+      <c r="B33" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3538,14 +3542,14 @@
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
     </row>
-    <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="60"/>
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="105"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="51" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3575,18 +3579,18 @@
       <c r="V34" s="45"/>
       <c r="W34" s="45"/>
     </row>
-    <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="66">
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="104">
         <v>2</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3607,14 +3611,14 @@
       <c r="V35" s="45"/>
       <c r="W35" s="45"/>
     </row>
-    <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="62"/>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="105"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3635,22 +3639,22 @@
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
     </row>
-    <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="65" t="s">
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="104"/>
+      <c r="B37" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="57" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="59"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3680,14 +3684,14 @@
       <c r="V37" s="45"/>
       <c r="W37" s="45"/>
     </row>
-    <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="67"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="60"/>
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="105"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="51" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3717,22 +3721,22 @@
       <c r="V38" s="45"/>
       <c r="W38" s="45"/>
     </row>
-    <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="74" t="s">
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="76" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="121"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3762,14 +3766,14 @@
       <c r="V39" s="45"/>
       <c r="W39" s="45"/>
     </row>
-    <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="75"/>
+    <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="53"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3799,22 +3803,22 @@
       <c r="V40" s="45"/>
       <c r="W40" s="45"/>
     </row>
-    <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="65" t="s">
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="104"/>
+      <c r="B41" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="59"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3844,14 +3848,14 @@
       <c r="V41" s="45"/>
       <c r="W41" s="45"/>
     </row>
-    <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="67"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="60"/>
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="105"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="51" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3881,16 +3885,16 @@
       <c r="V42" s="45"/>
       <c r="W42" s="45"/>
     </row>
-    <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="78" t="s">
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="115"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3937,14 +3941,14 @@
       <c r="V43" s="45"/>
       <c r="W43" s="45"/>
     </row>
-    <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="116"/>
+    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="7" t="s">
         <v>21</v>
       </c>
@@ -3991,18 +3995,18 @@
       <c r="V44" s="45"/>
       <c r="W44" s="45"/>
     </row>
-    <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="66">
+    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="104">
         <v>1</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="61"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="72"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4023,14 +4027,14 @@
       <c r="V45" s="45"/>
       <c r="W45" s="45"/>
     </row>
-    <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="62"/>
+    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="105"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4051,22 +4055,22 @@
       <c r="V46" s="45"/>
       <c r="W46" s="45"/>
     </row>
-    <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="74" t="s">
+    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="76" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="76" t="s">
+      <c r="F47" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="121"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4096,14 +4100,14 @@
       <c r="V47" s="45"/>
       <c r="W47" s="45"/>
     </row>
-    <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="75"/>
+    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="53"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="50" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4133,22 +4137,22 @@
       <c r="V48" s="45"/>
       <c r="W48" s="45"/>
     </row>
-    <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="65" t="s">
+    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="104"/>
+      <c r="B49" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="59"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4180,14 +4184,14 @@
       <c r="V49" s="45"/>
       <c r="W49" s="45"/>
     </row>
-    <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="67"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="60"/>
+    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="105"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="51" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4219,22 +4223,22 @@
       <c r="V50" s="45"/>
       <c r="W50" s="45"/>
     </row>
-    <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="72"/>
-      <c r="B51" s="74" t="s">
+    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="52"/>
+      <c r="B51" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="76" t="s">
+      <c r="D51" s="57"/>
+      <c r="E51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="76" t="s">
+      <c r="F51" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="121"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4266,14 +4270,14 @@
       <c r="V51" s="45"/>
       <c r="W51" s="45"/>
     </row>
-    <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="73"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="75"/>
+    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="53"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="50" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4305,18 +4309,18 @@
       <c r="V52" s="45"/>
       <c r="W52" s="45"/>
     </row>
-    <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="66">
+    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="104">
         <v>2</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="61"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="72"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4337,14 +4341,14 @@
       <c r="V53" s="45"/>
       <c r="W53" s="45"/>
     </row>
-    <row r="54" spans="1:23" ht="12" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="62"/>
+    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="105"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4365,22 +4369,22 @@
       <c r="V54" s="45"/>
       <c r="W54" s="45"/>
     </row>
-    <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="65" t="s">
+    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="104"/>
+      <c r="B55" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="57" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="F55" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="59"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4410,14 +4414,14 @@
       <c r="V55" s="45"/>
       <c r="W55" s="45"/>
     </row>
-    <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="60"/>
+    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="105"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="51" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4447,22 +4451,22 @@
       <c r="V56" s="45"/>
       <c r="W56" s="45"/>
     </row>
-    <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="65" t="s">
+    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="104"/>
+      <c r="B57" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="57" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="59"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4492,14 +4496,14 @@
       <c r="V57" s="45"/>
       <c r="W57" s="45"/>
     </row>
-    <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="60"/>
+    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="105"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="51" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4529,22 +4533,22 @@
       <c r="V58" s="45"/>
       <c r="W58" s="45"/>
     </row>
-    <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="65" t="s">
+    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="104"/>
+      <c r="B59" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="57" t="s">
+      <c r="D59" s="57"/>
+      <c r="E59" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="59"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4574,14 +4578,14 @@
       <c r="V59" s="45"/>
       <c r="W59" s="45"/>
     </row>
-    <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="60"/>
+    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="105"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="51" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4611,16 +4615,16 @@
       <c r="V60" s="45"/>
       <c r="W60" s="45"/>
     </row>
-    <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="A61" s="78" t="s">
+    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="115"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="82"/>
       <c r="H61" s="20" t="s">
         <v>19</v>
       </c>
@@ -4667,14 +4671,14 @@
       <c r="V61" s="45"/>
       <c r="W61" s="45"/>
     </row>
-    <row r="62" spans="1:23" ht="12" customHeight="1">
-      <c r="A62" s="81"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="116"/>
+    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="83"/>
       <c r="H62" s="7" t="s">
         <v>21</v>
       </c>
@@ -4721,18 +4725,18 @@
       <c r="V62" s="45"/>
       <c r="W62" s="45"/>
     </row>
-    <row r="63" spans="1:23" ht="12" customHeight="1">
-      <c r="A63" s="72">
+    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="52">
         <v>1</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="61"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4753,14 +4757,14 @@
       <c r="V63" s="45"/>
       <c r="W63" s="45"/>
     </row>
-    <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="62"/>
+    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="53"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4781,22 +4785,22 @@
       <c r="V64" s="45"/>
       <c r="W64" s="45"/>
     </row>
-    <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="A65" s="72"/>
-      <c r="B65" s="74" t="s">
+    <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="76" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="76" t="s">
+      <c r="F65" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G65" s="121"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4808,7 +4812,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f>SUM(L65:S65)</f>
+        <f t="shared" ref="K65:K96" si="19">SUM(L65:S65)</f>
         <v>5</v>
       </c>
       <c r="L65" s="41"/>
@@ -4826,14 +4830,14 @@
       <c r="V65" s="45"/>
       <c r="W65" s="45"/>
     </row>
-    <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="75"/>
+    <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="53"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4845,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="K66" s="9">
-        <f>SUM(L66:S66)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="L66" s="42"/>
@@ -4867,22 +4871,22 @@
       <c r="V66" s="45"/>
       <c r="W66" s="45"/>
     </row>
-    <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74" t="s">
+    <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="76" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="76" t="s">
+      <c r="F67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="121"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4894,7 +4898,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f>SUM(L67:S67)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="L67" s="41"/>
@@ -4912,14 +4916,14 @@
       <c r="V67" s="45"/>
       <c r="W67" s="45"/>
     </row>
-    <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="75"/>
+    <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="53"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4931,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="K68" s="9">
-        <f>SUM(L68:S68)</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="L68" s="42"/>
@@ -4951,22 +4955,22 @@
       <c r="V68" s="45"/>
       <c r="W68" s="45"/>
     </row>
-    <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="72"/>
-      <c r="B69" s="74" t="s">
+    <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="52"/>
+      <c r="B69" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="76" t="s">
+      <c r="D69" s="57"/>
+      <c r="E69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="76" t="s">
+      <c r="F69" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="121"/>
+      <c r="G69" s="62"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4978,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="K69" s="9">
-        <f>SUM(L69:S69)</f>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="L69" s="41"/>
@@ -4996,14 +5000,14 @@
       <c r="V69" s="45"/>
       <c r="W69" s="45"/>
     </row>
-    <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="73"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="75"/>
+    <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="53"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5015,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="9">
-        <f>SUM(L70:S70)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="L70" s="42"/>
@@ -5033,18 +5037,18 @@
       <c r="V70" s="45"/>
       <c r="W70" s="45"/>
     </row>
-    <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="72">
+    <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="52">
         <v>2</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="61"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="72"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5052,7 +5056,7 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="9">
-        <f>SUM(L71:S71)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L71" s="41"/>
@@ -5068,14 +5072,14 @@
       <c r="V71" s="45"/>
       <c r="W71" s="45"/>
     </row>
-    <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="62"/>
+    <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5083,7 +5087,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="9">
-        <f>SUM(L72:S72)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L72" s="42"/>
@@ -5099,22 +5103,22 @@
       <c r="V72" s="45"/>
       <c r="W72" s="45"/>
     </row>
-    <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="72"/>
-      <c r="B73" s="74" t="s">
+    <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="76" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="76" t="s">
+      <c r="F73" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="121"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5126,7 +5130,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f>SUM(L73:S73)</f>
+        <f t="shared" si="19"/>
         <v>1.25</v>
       </c>
       <c r="L73" s="41"/>
@@ -5144,14 +5148,14 @@
       <c r="V73" s="45"/>
       <c r="W73" s="45"/>
     </row>
-    <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="75"/>
+    <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="53"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="50" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5163,7 +5167,7 @@
         <v>5</v>
       </c>
       <c r="K74" s="9">
-        <f>SUM(L74:S74)</f>
+        <f t="shared" si="19"/>
         <v>1.25</v>
       </c>
       <c r="L74" s="42"/>
@@ -5181,22 +5185,22 @@
       <c r="V74" s="45"/>
       <c r="W74" s="45"/>
     </row>
-    <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74" t="s">
+    <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="76" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="76" t="s">
+      <c r="F75" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="121"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5208,7 +5212,7 @@
         <v>5</v>
       </c>
       <c r="K75" s="9">
-        <f>SUM(L75:S75)</f>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="L75" s="41"/>
@@ -5226,14 +5230,14 @@
       <c r="V75" s="45"/>
       <c r="W75" s="45"/>
     </row>
-    <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="75"/>
+    <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="53"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5245,7 +5249,7 @@
         <v>5</v>
       </c>
       <c r="K76" s="9">
-        <f>SUM(L76:S76)</f>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="L76" s="42"/>
@@ -5263,22 +5267,22 @@
       <c r="V76" s="45"/>
       <c r="W76" s="45"/>
     </row>
-    <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="72"/>
-      <c r="B77" s="74" t="s">
+    <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="52"/>
+      <c r="B77" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="68" t="s">
+      <c r="C77" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="76" t="s">
+      <c r="D77" s="57"/>
+      <c r="E77" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="121"/>
+      <c r="G77" s="62"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5290,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="9">
-        <f>SUM(L77:S77)</f>
+        <f t="shared" si="19"/>
         <v>0.16</v>
       </c>
       <c r="L77" s="41"/>
@@ -5308,14 +5312,14 @@
       <c r="V77" s="45"/>
       <c r="W77" s="45"/>
     </row>
-    <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="75"/>
+    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="53"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5327,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="9">
-        <f>SUM(L78:S78)</f>
+        <f t="shared" si="19"/>
         <v>0.16</v>
       </c>
       <c r="L78" s="44"/>
@@ -5345,23 +5349,23 @@
       <c r="V78" s="45"/>
       <c r="W78" s="45"/>
     </row>
-    <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="78" t="s">
+    <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="115"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="82"/>
       <c r="H79" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="9">
-        <f>SUM(L79:S79)</f>
+        <f t="shared" si="19"/>
         <v>22.5</v>
       </c>
       <c r="L79" s="46" cm="1">
@@ -5401,21 +5405,21 @@
       <c r="V79" s="45"/>
       <c r="W79" s="45"/>
     </row>
-    <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="81"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="116"/>
+    <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="77"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="83"/>
       <c r="H80" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9">
-        <f>SUM(L80:S80)</f>
+        <f t="shared" si="19"/>
         <v>10.5</v>
       </c>
       <c r="L80" s="21" cm="1">
@@ -5455,20 +5459,20 @@
       <c r="V80" s="45"/>
       <c r="W80" s="45"/>
     </row>
-    <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="72">
+    <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="52">
         <v>1</v>
       </c>
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="63" t="s">
+      <c r="C81" s="67"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="61"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="72"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5476,7 +5480,7 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9">
-        <f>SUM(L81:S81)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L81" s="41"/>
@@ -5492,14 +5496,14 @@
       <c r="V81" s="45"/>
       <c r="W81" s="45"/>
     </row>
-    <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="62"/>
+    <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5507,7 +5511,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="9">
-        <f>SUM(L82:S82)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L82" s="42"/>
@@ -5523,22 +5527,22 @@
       <c r="V82" s="45"/>
       <c r="W82" s="45"/>
     </row>
-    <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="72"/>
-      <c r="B83" s="74" t="s">
+    <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="76" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G83" s="121"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5550,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="K83" s="9">
-        <f>SUM(L83:S83)</f>
+        <f t="shared" si="19"/>
         <v>13.5</v>
       </c>
       <c r="L83" s="41"/>
@@ -5570,14 +5574,14 @@
       <c r="V83" s="45"/>
       <c r="W83" s="45"/>
     </row>
-    <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="73"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="75"/>
+    <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="53"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5589,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="K84" s="9">
-        <f>SUM(L84:S84)</f>
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
       <c r="L84" s="42"/>
@@ -5609,22 +5613,22 @@
       <c r="V84" s="45"/>
       <c r="W84" s="45"/>
     </row>
-    <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="72"/>
-      <c r="B85" s="74" t="s">
+    <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="52"/>
+      <c r="B85" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="69"/>
-      <c r="E85" s="76" t="s">
+      <c r="D85" s="57"/>
+      <c r="E85" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="76" t="s">
+      <c r="F85" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="121"/>
+      <c r="G85" s="62"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5636,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="K85" s="9">
-        <f>SUM(L85:S85)</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="L85" s="41"/>
@@ -5656,14 +5660,14 @@
       <c r="V85" s="45"/>
       <c r="W85" s="45"/>
     </row>
-    <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="75"/>
+    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="53"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5675,7 +5679,7 @@
         <v>2</v>
       </c>
       <c r="K86" s="9">
-        <f>SUM(L86:S86)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="L86" s="42"/>
@@ -5693,23 +5697,23 @@
       <c r="V86" s="45"/>
       <c r="W86" s="45"/>
     </row>
-    <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="78" t="s">
+    <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="115"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="82"/>
       <c r="H87" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="9">
-        <f>SUM(L87:S87)</f>
+        <f t="shared" si="19"/>
         <v>16.61</v>
       </c>
       <c r="L87" s="21" cm="1">
@@ -5749,21 +5753,21 @@
       <c r="V87" s="45"/>
       <c r="W87" s="45"/>
     </row>
-    <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="81"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="116"/>
+    <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="83"/>
       <c r="H88" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="9">
-        <f>SUM(L88:S88)</f>
+        <f t="shared" si="19"/>
         <v>2.5700000000000003</v>
       </c>
       <c r="L88" s="22" cm="1">
@@ -5803,18 +5807,18 @@
       <c r="V88" s="45"/>
       <c r="W88" s="45"/>
     </row>
-    <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="72">
+    <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="52">
         <v>1</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="61"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="72"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5822,7 +5826,7 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="9">
-        <f>SUM(L89:S89)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L89" s="41"/>
@@ -5838,14 +5842,14 @@
       <c r="V89" s="45"/>
       <c r="W89" s="45"/>
     </row>
-    <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="87"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="62"/>
+    <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="53"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5853,7 +5857,7 @@
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="9">
-        <f>SUM(L90:S90)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L90" s="42"/>
@@ -5869,22 +5873,22 @@
       <c r="V90" s="45"/>
       <c r="W90" s="45"/>
     </row>
-    <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="72"/>
-      <c r="B91" s="74" t="s">
+    <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="76" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="76" t="s">
+      <c r="F91" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G91" s="121"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5896,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="9">
-        <f>SUM(L91:S91)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="L91" s="41"/>
@@ -5916,14 +5920,14 @@
       <c r="V91" s="45"/>
       <c r="W91" s="45"/>
     </row>
-    <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="73"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="75"/>
+    <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="53"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="55"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5935,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="9">
-        <f>SUM(L92:S92)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L92" s="42"/>
@@ -5953,22 +5957,22 @@
       <c r="V92" s="45"/>
       <c r="W92" s="45"/>
     </row>
-    <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="72"/>
-      <c r="B93" s="74" t="s">
+    <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="52"/>
+      <c r="B93" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D93" s="69"/>
-      <c r="E93" s="76" t="s">
+      <c r="D93" s="57"/>
+      <c r="E93" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="76" t="s">
+      <c r="F93" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G93" s="121"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5980,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="9">
-        <f>SUM(L93:S93)</f>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="L93" s="41"/>
@@ -5998,14 +6002,14 @@
       <c r="V93" s="45"/>
       <c r="W93" s="45"/>
     </row>
-    <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="73"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="75"/>
+    <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="53"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="50" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6017,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="9">
-        <f>SUM(L94:S94)</f>
+        <f t="shared" si="19"/>
         <v>0.16</v>
       </c>
       <c r="L94" s="42"/>
@@ -6035,18 +6039,18 @@
       <c r="V94" s="45"/>
       <c r="W94" s="45"/>
     </row>
-    <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="72">
+    <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="52">
         <v>2</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="61"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="72"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6054,7 +6058,7 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="9">
-        <f>SUM(L95:S95)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L95" s="41"/>
@@ -6070,14 +6074,14 @@
       <c r="V95" s="45"/>
       <c r="W95" s="45"/>
     </row>
-    <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="73"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="62"/>
+    <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="53"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6085,7 +6089,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="9">
-        <f>SUM(L96:S96)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L96" s="42"/>
@@ -6101,22 +6105,22 @@
       <c r="V96" s="45"/>
       <c r="W96" s="45"/>
     </row>
-    <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="72"/>
-      <c r="B97" s="74" t="s">
+    <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="76" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F97" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G97" s="121"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6128,7 +6132,7 @@
         <v>5</v>
       </c>
       <c r="K97" s="9">
-        <f>SUM(L97:S97)</f>
+        <f t="shared" ref="K97:K128" si="20">SUM(L97:S97)</f>
         <v>1.25</v>
       </c>
       <c r="L97" s="41"/>
@@ -6146,14 +6150,14 @@
       <c r="V97" s="45"/>
       <c r="W97" s="45"/>
     </row>
-    <row r="98" spans="1:23" ht="12" customHeight="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="75"/>
+    <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="53"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6165,7 +6169,7 @@
         <v>5</v>
       </c>
       <c r="K98" s="9">
-        <f>SUM(L98:S98)</f>
+        <f t="shared" si="20"/>
         <v>1.25</v>
       </c>
       <c r="L98" s="42"/>
@@ -6183,22 +6187,22 @@
       <c r="V98" s="45"/>
       <c r="W98" s="45"/>
     </row>
-    <row r="99" spans="1:23" ht="12" customHeight="1">
-      <c r="A99" s="72"/>
-      <c r="B99" s="74" t="s">
+    <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="52"/>
+      <c r="B99" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="68" t="s">
+      <c r="C99" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="69"/>
-      <c r="E99" s="76" t="s">
+      <c r="D99" s="57"/>
+      <c r="E99" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F99" s="76" t="s">
+      <c r="F99" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="121"/>
+      <c r="G99" s="62"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6210,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="9">
-        <f>SUM(L99:S99)</f>
+        <f t="shared" si="20"/>
         <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
@@ -6228,14 +6232,14 @@
       <c r="V99" s="45"/>
       <c r="W99" s="45"/>
     </row>
-    <row r="100" spans="1:23" ht="12" customHeight="1">
-      <c r="A100" s="73"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="75"/>
+    <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="53"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="55"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6247,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="9">
-        <f>SUM(L100:S100)</f>
+        <f t="shared" si="20"/>
         <v>0.16</v>
       </c>
       <c r="L100" s="42"/>
@@ -6265,23 +6269,23 @@
       <c r="V100" s="45"/>
       <c r="W100" s="45"/>
     </row>
-    <row r="101" spans="1:23" ht="12" customHeight="1">
-      <c r="A101" s="78" t="s">
+    <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="115"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="82"/>
       <c r="H101" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
       <c r="K101" s="9">
-        <f>SUM(L101:S101)</f>
+        <f t="shared" si="20"/>
         <v>4.07</v>
       </c>
       <c r="L101" s="21" cm="1">
@@ -6321,21 +6325,21 @@
       <c r="V101" s="45"/>
       <c r="W101" s="45"/>
     </row>
-    <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="A102" s="81"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="116"/>
+    <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="77"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="83"/>
       <c r="H102" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="9">
-        <f>SUM(L102:S102)</f>
+        <f t="shared" si="20"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="L102" s="22" cm="1">
@@ -6375,18 +6379,18 @@
       <c r="V102" s="45"/>
       <c r="W102" s="45"/>
     </row>
-    <row r="103" spans="1:23" ht="12" customHeight="1">
-      <c r="A103" s="72">
+    <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="52">
         <v>1</v>
       </c>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="61"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="72"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6394,7 +6398,7 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
       <c r="K103" s="9">
-        <f>SUM(L103:S103)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L103" s="41"/>
@@ -6410,14 +6414,14 @@
       <c r="V103" s="45"/>
       <c r="W103" s="45"/>
     </row>
-    <row r="104" spans="1:23" ht="12" customHeight="1">
-      <c r="A104" s="73"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="62"/>
+    <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="53"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6425,7 +6429,7 @@
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="9">
-        <f>SUM(L104:S104)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L104" s="42"/>
@@ -6441,22 +6445,22 @@
       <c r="V104" s="45"/>
       <c r="W104" s="45"/>
     </row>
-    <row r="105" spans="1:23" ht="12" customHeight="1">
-      <c r="A105" s="72"/>
-      <c r="B105" s="74" t="s">
+    <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="76" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F105" s="76" t="s">
+      <c r="F105" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G105" s="121"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6468,7 +6472,7 @@
         <v>5</v>
       </c>
       <c r="K105" s="9">
-        <f>SUM(L105:S105)</f>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="L105" s="41"/>
@@ -6486,14 +6490,14 @@
       <c r="V105" s="45"/>
       <c r="W105" s="45"/>
     </row>
-    <row r="106" spans="1:23" ht="12" customHeight="1">
-      <c r="A106" s="73"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="75"/>
+    <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="53"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6505,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="K106" s="9">
-        <f>SUM(L106:S106)</f>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="L106" s="42"/>
@@ -6523,22 +6527,22 @@
       <c r="V106" s="45"/>
       <c r="W106" s="45"/>
     </row>
-    <row r="107" spans="1:23" ht="12" customHeight="1">
-      <c r="A107" s="72"/>
-      <c r="B107" s="74" t="s">
+    <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="52"/>
+      <c r="B107" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="69"/>
-      <c r="E107" s="76" t="s">
+      <c r="D107" s="57"/>
+      <c r="E107" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="76" t="s">
+      <c r="F107" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G107" s="121"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6550,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="9">
-        <f>SUM(L107:S107)</f>
+        <f t="shared" si="20"/>
         <v>0.16</v>
       </c>
       <c r="L107" s="41"/>
@@ -6568,14 +6572,14 @@
       <c r="V107" s="45"/>
       <c r="W107" s="45"/>
     </row>
-    <row r="108" spans="1:23" ht="12" customHeight="1">
-      <c r="A108" s="73"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="75"/>
+    <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="53"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="50" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6587,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="9">
-        <f>SUM(L108:S108)</f>
+        <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
       <c r="L108" s="42"/>
@@ -6605,18 +6609,18 @@
       <c r="V108" s="45"/>
       <c r="W108" s="45"/>
     </row>
-    <row r="109" spans="1:23" ht="12" customHeight="1">
-      <c r="A109" s="72">
+    <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="52">
         <v>2</v>
       </c>
-      <c r="B109" s="68" t="s">
+      <c r="B109" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="86"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="61"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="72"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6624,7 +6628,7 @@
       <c r="I109" s="24"/>
       <c r="J109" s="24"/>
       <c r="K109" s="9">
-        <f>SUM(L109:S109)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L109" s="41"/>
@@ -6640,14 +6644,14 @@
       <c r="V109" s="45"/>
       <c r="W109" s="45"/>
     </row>
-    <row r="110" spans="1:23" ht="12" customHeight="1">
-      <c r="A110" s="73"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="62"/>
+    <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="53"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6655,7 +6659,7 @@
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="9">
-        <f>SUM(L110:S110)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L110" s="42"/>
@@ -6671,22 +6675,22 @@
       <c r="V110" s="45"/>
       <c r="W110" s="45"/>
     </row>
-    <row r="111" spans="1:23" ht="12" customHeight="1">
-      <c r="A111" s="72"/>
-      <c r="B111" s="74" t="s">
+    <row r="111" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C111" s="68" t="s">
+      <c r="C111" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="76" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="76" t="s">
+      <c r="F111" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="121"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6698,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="K111" s="9">
-        <f>SUM(L111:S111)</f>
+        <f t="shared" si="20"/>
         <v>1.25</v>
       </c>
       <c r="L111" s="41"/>
@@ -6716,14 +6720,14 @@
       <c r="V111" s="45"/>
       <c r="W111" s="45"/>
     </row>
-    <row r="112" spans="1:23" ht="12" customHeight="1">
-      <c r="A112" s="73"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="75"/>
+    <row r="112" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="53"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="50" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -6735,7 +6739,7 @@
         <v>5</v>
       </c>
       <c r="K112" s="9">
-        <f>SUM(L112:S112)</f>
+        <f t="shared" si="20"/>
         <v>1.25</v>
       </c>
       <c r="L112" s="42"/>
@@ -6753,22 +6757,22 @@
       <c r="V112" s="45"/>
       <c r="W112" s="45"/>
     </row>
-    <row r="113" spans="1:23" ht="12" customHeight="1">
-      <c r="A113" s="72"/>
-      <c r="B113" s="74" t="s">
+    <row r="113" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="52"/>
+      <c r="B113" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C113" s="68" t="s">
+      <c r="C113" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="69"/>
-      <c r="E113" s="76" t="s">
+      <c r="D113" s="57"/>
+      <c r="E113" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="76" t="s">
+      <c r="F113" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G113" s="121"/>
+      <c r="G113" s="62"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -6780,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="9">
-        <f>SUM(L113:S113)</f>
+        <f t="shared" si="20"/>
         <v>0.16</v>
       </c>
       <c r="L113" s="41"/>
@@ -6798,14 +6802,14 @@
       <c r="V113" s="45"/>
       <c r="W113" s="45"/>
     </row>
-    <row r="114" spans="1:23" ht="12" customHeight="1">
-      <c r="A114" s="73"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="75"/>
+    <row r="114" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="53"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="55"/>
       <c r="H114" s="50" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -6817,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="9">
-        <f>SUM(L114:S114)</f>
+        <f t="shared" si="20"/>
         <v>0.16</v>
       </c>
       <c r="L114" s="42"/>
@@ -6835,9 +6839,9 @@
       <c r="V114" s="45"/>
       <c r="W114" s="45"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="K115" s="9">
-        <f t="shared" ref="K115" si="19">SUM(L115:W115)</f>
+        <f t="shared" ref="K115" si="21">SUM(L115:W115)</f>
         <v>0</v>
       </c>
       <c r="L115" s="36"/>
@@ -6858,6 +6862,303 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="321">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -6882,303 +7183,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:S38 L41:S42 L89:S100 L45:S54 L81:S86 L55:M60 O55:S60 L63:S78 L103:S114 L9:S22 L25:O40">
@@ -7258,6 +7262,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7441,23 +7454,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>